--- a/CLO Dashboard/Logistics_Dashboard.xlsx
+++ b/CLO Dashboard/Logistics_Dashboard.xlsx
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -705,10 +705,10 @@
         <v>4800</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -721,10 +721,10 @@
         <v>2500</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -737,10 +737,10 @@
         <v>2000</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="7" t="n">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -769,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="7" t="n">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CLO Dashboard/Logistics_Dashboard.xlsx
+++ b/CLO Dashboard/Logistics_Dashboard.xlsx
@@ -22,7 +22,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="$#,##0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -59,12 +59,8 @@
     <font>
       <b val="1"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00C00000"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -125,6 +121,12 @@
         <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -144,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -165,7 +167,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -190,13 +191,22 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -210,6 +220,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="00E4DFEC"/>
           <bgColor rgb="00E4DFEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00C6EFCE"/>
+          <bgColor rgb="00C6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -284,6 +302,737 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Warehouse Tetris (Inv vs Capacity)</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Ending Inv</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$A$8:$A$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$F$8:$F$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Capacity Limit</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$G$8:$G$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Fortnight</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Units</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>West Supply vs Demand</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Total Supply</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$A$22:$A$29</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$J$22:$J$29</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Total Demand</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$A$22:$A$29</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$K$22:$K$29</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Units</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>North Supply vs Demand</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Total Supply</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$A$36:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$J$36:$J$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Total Demand</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$A$36:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$K$36:$K$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Units</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>East Supply vs Demand</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Total Supply</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$A$50:$A$57</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$J$50:$J$57</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Total Demand</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$A$50:$A$57</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$K$50:$K$57</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Units</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>South Supply vs Demand</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>Total Supply</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$A$64:$A$71</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$J$64:$J$71</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Total Demand</v>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$A$64:$A$71</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'INVENTORY_TETRIS'!$K$64:$K$71</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Units</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>45</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -786,7 +1535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,6 +1550,7 @@
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -883,6 +1633,11 @@
       </c>
       <c r="G7" s="15" t="inlineStr">
         <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H7" s="15" t="inlineStr">
+        <is>
           <t>Flag</t>
         </is>
       </c>
@@ -905,12 +1660,16 @@
       <c r="E8" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="5">
         <f>$B$5+B8+E8-D8-C8</f>
         <v/>
       </c>
-      <c r="G8" s="5">
-        <f>IF(F8&lt;0,"STOCKOUT: SHIP HERE!",IF(F8&gt;$E$5+(H$5*ROUTE_CONFIG!$D$12),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G8" s="9">
+        <f>$E$5 + ($H$5 * ROUTE_CONFIG!$D$13)</f>
+        <v/>
+      </c>
+      <c r="H8" s="5">
+        <f>IF(F8&lt;0,"STOCKOUT: SHIP HERE!",IF(F8&gt;G8,"OVERFLOW: RENT!","OK"))</f>
         <v/>
       </c>
     </row>
@@ -932,12 +1691,16 @@
       <c r="E9" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="5">
         <f>F8+B9+E9-D9-C9</f>
         <v/>
       </c>
-      <c r="G9" s="5">
-        <f>IF(F9&lt;0,"STOCKOUT: SHIP HERE!",IF(F9&gt;$E$5+(H$5*ROUTE_CONFIG!$D$12),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G9" s="9">
+        <f>$E$5 + ($H$5 * ROUTE_CONFIG!$D$13)</f>
+        <v/>
+      </c>
+      <c r="H9" s="5">
+        <f>IF(F9&lt;0,"STOCKOUT: SHIP HERE!",IF(F9&gt;G9,"OVERFLOW: RENT!","OK"))</f>
         <v/>
       </c>
     </row>
@@ -959,12 +1722,16 @@
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="5">
         <f>F9+B10+E10-D10-C10</f>
         <v/>
       </c>
-      <c r="G10" s="5">
-        <f>IF(F10&lt;0,"STOCKOUT: SHIP HERE!",IF(F10&gt;$E$5+(H$5*ROUTE_CONFIG!$D$12),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G10" s="9">
+        <f>$E$5 + ($H$5 * ROUTE_CONFIG!$D$13)</f>
+        <v/>
+      </c>
+      <c r="H10" s="5">
+        <f>IF(F10&lt;0,"STOCKOUT: SHIP HERE!",IF(F10&gt;G10,"OVERFLOW: RENT!","OK"))</f>
         <v/>
       </c>
     </row>
@@ -986,12 +1753,16 @@
       <c r="E11" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="5">
         <f>F10+B11+E11-D11-C11</f>
         <v/>
       </c>
-      <c r="G11" s="5">
-        <f>IF(F11&lt;0,"STOCKOUT: SHIP HERE!",IF(F11&gt;$E$5+(H$5*ROUTE_CONFIG!$D$12),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G11" s="9">
+        <f>$E$5 + ($H$5 * ROUTE_CONFIG!$D$13)</f>
+        <v/>
+      </c>
+      <c r="H11" s="5">
+        <f>IF(F11&lt;0,"STOCKOUT: SHIP HERE!",IF(F11&gt;G11,"OVERFLOW: RENT!","OK"))</f>
         <v/>
       </c>
     </row>
@@ -1013,12 +1784,16 @@
       <c r="E12" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="5">
         <f>F11+B12+E12-D12-C12</f>
         <v/>
       </c>
-      <c r="G12" s="5">
-        <f>IF(F12&lt;0,"STOCKOUT: SHIP HERE!",IF(F12&gt;$E$5+(H$5*ROUTE_CONFIG!$D$12),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G12" s="9">
+        <f>$E$5 + ($H$5 * ROUTE_CONFIG!$D$13)</f>
+        <v/>
+      </c>
+      <c r="H12" s="5">
+        <f>IF(F12&lt;0,"STOCKOUT: SHIP HERE!",IF(F12&gt;G12,"OVERFLOW: RENT!","OK"))</f>
         <v/>
       </c>
     </row>
@@ -1040,12 +1815,16 @@
       <c r="E13" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="5">
         <f>F12+B13+E13-D13-C13</f>
         <v/>
       </c>
-      <c r="G13" s="5">
-        <f>IF(F13&lt;0,"STOCKOUT: SHIP HERE!",IF(F13&gt;$E$5+(H$5*ROUTE_CONFIG!$D$12),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G13" s="9">
+        <f>$E$5 + ($H$5 * ROUTE_CONFIG!$D$13)</f>
+        <v/>
+      </c>
+      <c r="H13" s="5">
+        <f>IF(F13&lt;0,"STOCKOUT: SHIP HERE!",IF(F13&gt;G13,"OVERFLOW: RENT!","OK"))</f>
         <v/>
       </c>
     </row>
@@ -1067,12 +1846,16 @@
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="5">
         <f>F13+B14+E14-D14-C14</f>
         <v/>
       </c>
-      <c r="G14" s="5">
-        <f>IF(F14&lt;0,"STOCKOUT: SHIP HERE!",IF(F14&gt;$E$5+(H$5*ROUTE_CONFIG!$D$12),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G14" s="9">
+        <f>$E$5 + ($H$5 * ROUTE_CONFIG!$D$13)</f>
+        <v/>
+      </c>
+      <c r="H14" s="5">
+        <f>IF(F14&lt;0,"STOCKOUT: SHIP HERE!",IF(F14&gt;G14,"OVERFLOW: RENT!","OK"))</f>
         <v/>
       </c>
     </row>
@@ -1094,17 +1877,21 @@
       <c r="E15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="5">
         <f>F14+B15+E15-D15-C15</f>
         <v/>
       </c>
-      <c r="G15" s="5">
-        <f>IF(F15&lt;0,"STOCKOUT: SHIP HERE!",IF(F15&gt;$E$5+(H$5*ROUTE_CONFIG!$D$12),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G15" s="9">
+        <f>$E$5 + ($H$5 * ROUTE_CONFIG!$D$13)</f>
+        <v/>
+      </c>
+      <c r="H15" s="5">
+        <f>IF(F15&lt;0,"STOCKOUT: SHIP HERE!",IF(F15&gt;G15,"OVERFLOW: RENT!","OK"))</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="17" t="inlineStr">
+      <c r="A18" s="16" t="inlineStr">
         <is>
           <t>═══ WEST ZONE (Capacity: 2,500) ═══</t>
         </is>
@@ -1137,39 +1924,54 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="18" t="inlineStr">
+      <c r="A21" s="17" t="inlineStr">
         <is>
           <t>Fortnight</t>
         </is>
       </c>
-      <c r="B21" s="18" t="inlineStr">
+      <c r="B21" s="17" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="C21" s="18" t="inlineStr">
+      <c r="C21" s="17" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="D21" s="18" t="inlineStr">
+      <c r="D21" s="17" t="inlineStr">
         <is>
           <t>Outgoing</t>
         </is>
       </c>
-      <c r="E21" s="18" t="inlineStr">
+      <c r="E21" s="17" t="inlineStr">
         <is>
           <t>Incoming</t>
         </is>
       </c>
-      <c r="F21" s="18" t="inlineStr">
+      <c r="F21" s="17" t="inlineStr">
         <is>
           <t>Projected Inv</t>
         </is>
       </c>
-      <c r="G21" s="18" t="inlineStr">
+      <c r="G21" s="17" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H21" s="17" t="inlineStr">
         <is>
           <t>Flag</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Total Supply</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Total Demand</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1993,24 @@
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="5">
         <f>$B$19+B22+E22-D22-C22</f>
         <v/>
       </c>
-      <c r="G22" s="5">
-        <f>IF(F22&lt;0,"STOCKOUT: SHIP HERE!",IF(F22&gt;$E$19+(H$19*ROUTE_CONFIG!$D$13),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G22" s="9">
+        <f>$E$19 + ($H$19 * ROUTE_CONFIG!$D$14)</f>
+        <v/>
+      </c>
+      <c r="H22" s="5">
+        <f>IF(F22&lt;0,"STOCKOUT: SHIP HERE!",IF(F22&gt;G22,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J22">
+        <f>B22+E22</f>
+        <v/>
+      </c>
+      <c r="K22">
+        <f>C22+D22</f>
         <v/>
       </c>
     </row>
@@ -1218,12 +2032,24 @@
       <c r="E23" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="5">
         <f>F22+B23+E23-D23-C23</f>
         <v/>
       </c>
-      <c r="G23" s="5">
-        <f>IF(F23&lt;0,"STOCKOUT: SHIP HERE!",IF(F23&gt;$E$19+(H$19*ROUTE_CONFIG!$D$13),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G23" s="9">
+        <f>$E$19 + ($H$19 * ROUTE_CONFIG!$D$14)</f>
+        <v/>
+      </c>
+      <c r="H23" s="5">
+        <f>IF(F23&lt;0,"STOCKOUT: SHIP HERE!",IF(F23&gt;G23,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J23">
+        <f>B23+E23</f>
+        <v/>
+      </c>
+      <c r="K23">
+        <f>C23+D23</f>
         <v/>
       </c>
     </row>
@@ -1245,12 +2071,24 @@
       <c r="E24" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="5">
         <f>F23+B24+E24-D24-C24</f>
         <v/>
       </c>
-      <c r="G24" s="5">
-        <f>IF(F24&lt;0,"STOCKOUT: SHIP HERE!",IF(F24&gt;$E$19+(H$19*ROUTE_CONFIG!$D$13),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G24" s="9">
+        <f>$E$19 + ($H$19 * ROUTE_CONFIG!$D$14)</f>
+        <v/>
+      </c>
+      <c r="H24" s="5">
+        <f>IF(F24&lt;0,"STOCKOUT: SHIP HERE!",IF(F24&gt;G24,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J24">
+        <f>B24+E24</f>
+        <v/>
+      </c>
+      <c r="K24">
+        <f>C24+D24</f>
         <v/>
       </c>
     </row>
@@ -1272,12 +2110,24 @@
       <c r="E25" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="5">
         <f>F24+B25+E25-D25-C25</f>
         <v/>
       </c>
-      <c r="G25" s="5">
-        <f>IF(F25&lt;0,"STOCKOUT: SHIP HERE!",IF(F25&gt;$E$19+(H$19*ROUTE_CONFIG!$D$13),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G25" s="9">
+        <f>$E$19 + ($H$19 * ROUTE_CONFIG!$D$14)</f>
+        <v/>
+      </c>
+      <c r="H25" s="5">
+        <f>IF(F25&lt;0,"STOCKOUT: SHIP HERE!",IF(F25&gt;G25,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J25">
+        <f>B25+E25</f>
+        <v/>
+      </c>
+      <c r="K25">
+        <f>C25+D25</f>
         <v/>
       </c>
     </row>
@@ -1299,12 +2149,24 @@
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="5">
         <f>F25+B26+E26-D26-C26</f>
         <v/>
       </c>
-      <c r="G26" s="5">
-        <f>IF(F26&lt;0,"STOCKOUT: SHIP HERE!",IF(F26&gt;$E$19+(H$19*ROUTE_CONFIG!$D$13),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G26" s="9">
+        <f>$E$19 + ($H$19 * ROUTE_CONFIG!$D$14)</f>
+        <v/>
+      </c>
+      <c r="H26" s="5">
+        <f>IF(F26&lt;0,"STOCKOUT: SHIP HERE!",IF(F26&gt;G26,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J26">
+        <f>B26+E26</f>
+        <v/>
+      </c>
+      <c r="K26">
+        <f>C26+D26</f>
         <v/>
       </c>
     </row>
@@ -1326,12 +2188,24 @@
       <c r="E27" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="5">
         <f>F26+B27+E27-D27-C27</f>
         <v/>
       </c>
-      <c r="G27" s="5">
-        <f>IF(F27&lt;0,"STOCKOUT: SHIP HERE!",IF(F27&gt;$E$19+(H$19*ROUTE_CONFIG!$D$13),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G27" s="9">
+        <f>$E$19 + ($H$19 * ROUTE_CONFIG!$D$14)</f>
+        <v/>
+      </c>
+      <c r="H27" s="5">
+        <f>IF(F27&lt;0,"STOCKOUT: SHIP HERE!",IF(F27&gt;G27,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J27">
+        <f>B27+E27</f>
+        <v/>
+      </c>
+      <c r="K27">
+        <f>C27+D27</f>
         <v/>
       </c>
     </row>
@@ -1353,12 +2227,24 @@
       <c r="E28" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="5">
         <f>F27+B28+E28-D28-C28</f>
         <v/>
       </c>
-      <c r="G28" s="5">
-        <f>IF(F28&lt;0,"STOCKOUT: SHIP HERE!",IF(F28&gt;$E$19+(H$19*ROUTE_CONFIG!$D$13),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G28" s="9">
+        <f>$E$19 + ($H$19 * ROUTE_CONFIG!$D$14)</f>
+        <v/>
+      </c>
+      <c r="H28" s="5">
+        <f>IF(F28&lt;0,"STOCKOUT: SHIP HERE!",IF(F28&gt;G28,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J28">
+        <f>B28+E28</f>
+        <v/>
+      </c>
+      <c r="K28">
+        <f>C28+D28</f>
         <v/>
       </c>
     </row>
@@ -1380,17 +2266,29 @@
       <c r="E29" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="5">
         <f>F28+B29+E29-D29-C29</f>
         <v/>
       </c>
-      <c r="G29" s="5">
-        <f>IF(F29&lt;0,"STOCKOUT: SHIP HERE!",IF(F29&gt;$E$19+(H$19*ROUTE_CONFIG!$D$13),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G29" s="9">
+        <f>$E$19 + ($H$19 * ROUTE_CONFIG!$D$14)</f>
+        <v/>
+      </c>
+      <c r="H29" s="5">
+        <f>IF(F29&lt;0,"STOCKOUT: SHIP HERE!",IF(F29&gt;G29,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J29">
+        <f>B29+E29</f>
+        <v/>
+      </c>
+      <c r="K29">
+        <f>C29+D29</f>
         <v/>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="inlineStr">
+      <c r="A32" s="18" t="inlineStr">
         <is>
           <t>═══ NORTH ZONE (Capacity: 2,000) ═══</t>
         </is>
@@ -1423,39 +2321,54 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="20" t="inlineStr">
+      <c r="A35" s="19" t="inlineStr">
         <is>
           <t>Fortnight</t>
         </is>
       </c>
-      <c r="B35" s="20" t="inlineStr">
+      <c r="B35" s="19" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="C35" s="20" t="inlineStr">
+      <c r="C35" s="19" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="D35" s="20" t="inlineStr">
+      <c r="D35" s="19" t="inlineStr">
         <is>
           <t>Outgoing</t>
         </is>
       </c>
-      <c r="E35" s="20" t="inlineStr">
+      <c r="E35" s="19" t="inlineStr">
         <is>
           <t>Incoming</t>
         </is>
       </c>
-      <c r="F35" s="20" t="inlineStr">
+      <c r="F35" s="19" t="inlineStr">
         <is>
           <t>Projected Inv</t>
         </is>
       </c>
-      <c r="G35" s="20" t="inlineStr">
+      <c r="G35" s="19" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H35" s="19" t="inlineStr">
         <is>
           <t>Flag</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Total Supply</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Total Demand</t>
         </is>
       </c>
     </row>
@@ -1477,12 +2390,24 @@
       <c r="E36" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="5">
         <f>$B$33+B36+E36-D36-C36</f>
         <v/>
       </c>
-      <c r="G36" s="5">
-        <f>IF(F36&lt;0,"STOCKOUT: SHIP HERE!",IF(F36&gt;$E$33+(H$33*ROUTE_CONFIG!$D$14),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G36" s="9">
+        <f>$E$33 + ($H$33 * ROUTE_CONFIG!$D$15)</f>
+        <v/>
+      </c>
+      <c r="H36" s="5">
+        <f>IF(F36&lt;0,"STOCKOUT: SHIP HERE!",IF(F36&gt;G36,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J36">
+        <f>B36+E36</f>
+        <v/>
+      </c>
+      <c r="K36">
+        <f>C36+D36</f>
         <v/>
       </c>
     </row>
@@ -1504,12 +2429,24 @@
       <c r="E37" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="5">
         <f>F36+B37+E37-D37-C37</f>
         <v/>
       </c>
-      <c r="G37" s="5">
-        <f>IF(F37&lt;0,"STOCKOUT: SHIP HERE!",IF(F37&gt;$E$33+(H$33*ROUTE_CONFIG!$D$14),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G37" s="9">
+        <f>$E$33 + ($H$33 * ROUTE_CONFIG!$D$15)</f>
+        <v/>
+      </c>
+      <c r="H37" s="5">
+        <f>IF(F37&lt;0,"STOCKOUT: SHIP HERE!",IF(F37&gt;G37,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J37">
+        <f>B37+E37</f>
+        <v/>
+      </c>
+      <c r="K37">
+        <f>C37+D37</f>
         <v/>
       </c>
     </row>
@@ -1531,12 +2468,24 @@
       <c r="E38" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="5">
         <f>F37+B38+E38-D38-C38</f>
         <v/>
       </c>
-      <c r="G38" s="5">
-        <f>IF(F38&lt;0,"STOCKOUT: SHIP HERE!",IF(F38&gt;$E$33+(H$33*ROUTE_CONFIG!$D$14),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G38" s="9">
+        <f>$E$33 + ($H$33 * ROUTE_CONFIG!$D$15)</f>
+        <v/>
+      </c>
+      <c r="H38" s="5">
+        <f>IF(F38&lt;0,"STOCKOUT: SHIP HERE!",IF(F38&gt;G38,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J38">
+        <f>B38+E38</f>
+        <v/>
+      </c>
+      <c r="K38">
+        <f>C38+D38</f>
         <v/>
       </c>
     </row>
@@ -1558,12 +2507,24 @@
       <c r="E39" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="5">
         <f>F38+B39+E39-D39-C39</f>
         <v/>
       </c>
-      <c r="G39" s="5">
-        <f>IF(F39&lt;0,"STOCKOUT: SHIP HERE!",IF(F39&gt;$E$33+(H$33*ROUTE_CONFIG!$D$14),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G39" s="9">
+        <f>$E$33 + ($H$33 * ROUTE_CONFIG!$D$15)</f>
+        <v/>
+      </c>
+      <c r="H39" s="5">
+        <f>IF(F39&lt;0,"STOCKOUT: SHIP HERE!",IF(F39&gt;G39,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J39">
+        <f>B39+E39</f>
+        <v/>
+      </c>
+      <c r="K39">
+        <f>C39+D39</f>
         <v/>
       </c>
     </row>
@@ -1585,12 +2546,24 @@
       <c r="E40" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="5">
         <f>F39+B40+E40-D40-C40</f>
         <v/>
       </c>
-      <c r="G40" s="5">
-        <f>IF(F40&lt;0,"STOCKOUT: SHIP HERE!",IF(F40&gt;$E$33+(H$33*ROUTE_CONFIG!$D$14),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G40" s="9">
+        <f>$E$33 + ($H$33 * ROUTE_CONFIG!$D$15)</f>
+        <v/>
+      </c>
+      <c r="H40" s="5">
+        <f>IF(F40&lt;0,"STOCKOUT: SHIP HERE!",IF(F40&gt;G40,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J40">
+        <f>B40+E40</f>
+        <v/>
+      </c>
+      <c r="K40">
+        <f>C40+D40</f>
         <v/>
       </c>
     </row>
@@ -1612,12 +2585,24 @@
       <c r="E41" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="5">
         <f>F40+B41+E41-D41-C41</f>
         <v/>
       </c>
-      <c r="G41" s="5">
-        <f>IF(F41&lt;0,"STOCKOUT: SHIP HERE!",IF(F41&gt;$E$33+(H$33*ROUTE_CONFIG!$D$14),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G41" s="9">
+        <f>$E$33 + ($H$33 * ROUTE_CONFIG!$D$15)</f>
+        <v/>
+      </c>
+      <c r="H41" s="5">
+        <f>IF(F41&lt;0,"STOCKOUT: SHIP HERE!",IF(F41&gt;G41,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J41">
+        <f>B41+E41</f>
+        <v/>
+      </c>
+      <c r="K41">
+        <f>C41+D41</f>
         <v/>
       </c>
     </row>
@@ -1639,12 +2624,24 @@
       <c r="E42" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="5">
         <f>F41+B42+E42-D42-C42</f>
         <v/>
       </c>
-      <c r="G42" s="5">
-        <f>IF(F42&lt;0,"STOCKOUT: SHIP HERE!",IF(F42&gt;$E$33+(H$33*ROUTE_CONFIG!$D$14),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G42" s="9">
+        <f>$E$33 + ($H$33 * ROUTE_CONFIG!$D$15)</f>
+        <v/>
+      </c>
+      <c r="H42" s="5">
+        <f>IF(F42&lt;0,"STOCKOUT: SHIP HERE!",IF(F42&gt;G42,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J42">
+        <f>B42+E42</f>
+        <v/>
+      </c>
+      <c r="K42">
+        <f>C42+D42</f>
         <v/>
       </c>
     </row>
@@ -1666,17 +2663,29 @@
       <c r="E43" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="5">
         <f>F42+B43+E43-D43-C43</f>
         <v/>
       </c>
-      <c r="G43" s="5">
-        <f>IF(F43&lt;0,"STOCKOUT: SHIP HERE!",IF(F43&gt;$E$33+(H$33*ROUTE_CONFIG!$D$14),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G43" s="9">
+        <f>$E$33 + ($H$33 * ROUTE_CONFIG!$D$15)</f>
+        <v/>
+      </c>
+      <c r="H43" s="5">
+        <f>IF(F43&lt;0,"STOCKOUT: SHIP HERE!",IF(F43&gt;G43,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J43">
+        <f>B43+E43</f>
+        <v/>
+      </c>
+      <c r="K43">
+        <f>C43+D43</f>
         <v/>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="21" t="inlineStr">
+      <c r="A46" s="20" t="inlineStr">
         <is>
           <t>═══ EAST ZONE (Capacity: 0) ═══</t>
         </is>
@@ -1709,39 +2718,54 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="22" t="inlineStr">
+      <c r="A49" s="21" t="inlineStr">
         <is>
           <t>Fortnight</t>
         </is>
       </c>
-      <c r="B49" s="22" t="inlineStr">
+      <c r="B49" s="21" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="C49" s="22" t="inlineStr">
+      <c r="C49" s="21" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="D49" s="22" t="inlineStr">
+      <c r="D49" s="21" t="inlineStr">
         <is>
           <t>Outgoing</t>
         </is>
       </c>
-      <c r="E49" s="22" t="inlineStr">
+      <c r="E49" s="21" t="inlineStr">
         <is>
           <t>Incoming</t>
         </is>
       </c>
-      <c r="F49" s="22" t="inlineStr">
+      <c r="F49" s="21" t="inlineStr">
         <is>
           <t>Projected Inv</t>
         </is>
       </c>
-      <c r="G49" s="22" t="inlineStr">
+      <c r="G49" s="21" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H49" s="21" t="inlineStr">
         <is>
           <t>Flag</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Total Supply</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Total Demand</t>
         </is>
       </c>
     </row>
@@ -1763,12 +2787,24 @@
       <c r="E50" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="5">
         <f>$B$47+B50+E50-D50-C50</f>
         <v/>
       </c>
-      <c r="G50" s="5">
-        <f>IF(F50&lt;0,"STOCKOUT: SHIP HERE!",IF(F50&gt;$E$47+(H$47*ROUTE_CONFIG!$D$15),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G50" s="9">
+        <f>$E$47 + ($H$47 * ROUTE_CONFIG!$D$16)</f>
+        <v/>
+      </c>
+      <c r="H50" s="5">
+        <f>IF(F50&lt;0,"STOCKOUT: SHIP HERE!",IF(F50&gt;G50,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J50">
+        <f>B50+E50</f>
+        <v/>
+      </c>
+      <c r="K50">
+        <f>C50+D50</f>
         <v/>
       </c>
     </row>
@@ -1790,12 +2826,24 @@
       <c r="E51" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="5">
         <f>F50+B51+E51-D51-C51</f>
         <v/>
       </c>
-      <c r="G51" s="5">
-        <f>IF(F51&lt;0,"STOCKOUT: SHIP HERE!",IF(F51&gt;$E$47+(H$47*ROUTE_CONFIG!$D$15),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G51" s="9">
+        <f>$E$47 + ($H$47 * ROUTE_CONFIG!$D$16)</f>
+        <v/>
+      </c>
+      <c r="H51" s="5">
+        <f>IF(F51&lt;0,"STOCKOUT: SHIP HERE!",IF(F51&gt;G51,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J51">
+        <f>B51+E51</f>
+        <v/>
+      </c>
+      <c r="K51">
+        <f>C51+D51</f>
         <v/>
       </c>
     </row>
@@ -1817,12 +2865,24 @@
       <c r="E52" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="5">
         <f>F51+B52+E52-D52-C52</f>
         <v/>
       </c>
-      <c r="G52" s="5">
-        <f>IF(F52&lt;0,"STOCKOUT: SHIP HERE!",IF(F52&gt;$E$47+(H$47*ROUTE_CONFIG!$D$15),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G52" s="9">
+        <f>$E$47 + ($H$47 * ROUTE_CONFIG!$D$16)</f>
+        <v/>
+      </c>
+      <c r="H52" s="5">
+        <f>IF(F52&lt;0,"STOCKOUT: SHIP HERE!",IF(F52&gt;G52,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J52">
+        <f>B52+E52</f>
+        <v/>
+      </c>
+      <c r="K52">
+        <f>C52+D52</f>
         <v/>
       </c>
     </row>
@@ -1844,12 +2904,24 @@
       <c r="E53" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="5">
         <f>F52+B53+E53-D53-C53</f>
         <v/>
       </c>
-      <c r="G53" s="5">
-        <f>IF(F53&lt;0,"STOCKOUT: SHIP HERE!",IF(F53&gt;$E$47+(H$47*ROUTE_CONFIG!$D$15),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G53" s="9">
+        <f>$E$47 + ($H$47 * ROUTE_CONFIG!$D$16)</f>
+        <v/>
+      </c>
+      <c r="H53" s="5">
+        <f>IF(F53&lt;0,"STOCKOUT: SHIP HERE!",IF(F53&gt;G53,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J53">
+        <f>B53+E53</f>
+        <v/>
+      </c>
+      <c r="K53">
+        <f>C53+D53</f>
         <v/>
       </c>
     </row>
@@ -1871,12 +2943,24 @@
       <c r="E54" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="5">
         <f>F53+B54+E54-D54-C54</f>
         <v/>
       </c>
-      <c r="G54" s="5">
-        <f>IF(F54&lt;0,"STOCKOUT: SHIP HERE!",IF(F54&gt;$E$47+(H$47*ROUTE_CONFIG!$D$15),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G54" s="9">
+        <f>$E$47 + ($H$47 * ROUTE_CONFIG!$D$16)</f>
+        <v/>
+      </c>
+      <c r="H54" s="5">
+        <f>IF(F54&lt;0,"STOCKOUT: SHIP HERE!",IF(F54&gt;G54,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J54">
+        <f>B54+E54</f>
+        <v/>
+      </c>
+      <c r="K54">
+        <f>C54+D54</f>
         <v/>
       </c>
     </row>
@@ -1898,12 +2982,24 @@
       <c r="E55" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="5">
         <f>F54+B55+E55-D55-C55</f>
         <v/>
       </c>
-      <c r="G55" s="5">
-        <f>IF(F55&lt;0,"STOCKOUT: SHIP HERE!",IF(F55&gt;$E$47+(H$47*ROUTE_CONFIG!$D$15),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G55" s="9">
+        <f>$E$47 + ($H$47 * ROUTE_CONFIG!$D$16)</f>
+        <v/>
+      </c>
+      <c r="H55" s="5">
+        <f>IF(F55&lt;0,"STOCKOUT: SHIP HERE!",IF(F55&gt;G55,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J55">
+        <f>B55+E55</f>
+        <v/>
+      </c>
+      <c r="K55">
+        <f>C55+D55</f>
         <v/>
       </c>
     </row>
@@ -1925,12 +3021,24 @@
       <c r="E56" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="5">
         <f>F55+B56+E56-D56-C56</f>
         <v/>
       </c>
-      <c r="G56" s="5">
-        <f>IF(F56&lt;0,"STOCKOUT: SHIP HERE!",IF(F56&gt;$E$47+(H$47*ROUTE_CONFIG!$D$15),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G56" s="9">
+        <f>$E$47 + ($H$47 * ROUTE_CONFIG!$D$16)</f>
+        <v/>
+      </c>
+      <c r="H56" s="5">
+        <f>IF(F56&lt;0,"STOCKOUT: SHIP HERE!",IF(F56&gt;G56,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J56">
+        <f>B56+E56</f>
+        <v/>
+      </c>
+      <c r="K56">
+        <f>C56+D56</f>
         <v/>
       </c>
     </row>
@@ -1952,17 +3060,29 @@
       <c r="E57" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="5">
         <f>F56+B57+E57-D57-C57</f>
         <v/>
       </c>
-      <c r="G57" s="5">
-        <f>IF(F57&lt;0,"STOCKOUT: SHIP HERE!",IF(F57&gt;$E$47+(H$47*ROUTE_CONFIG!$D$15),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G57" s="9">
+        <f>$E$47 + ($H$47 * ROUTE_CONFIG!$D$16)</f>
+        <v/>
+      </c>
+      <c r="H57" s="5">
+        <f>IF(F57&lt;0,"STOCKOUT: SHIP HERE!",IF(F57&gt;G57,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J57">
+        <f>B57+E57</f>
+        <v/>
+      </c>
+      <c r="K57">
+        <f>C57+D57</f>
         <v/>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="23" t="inlineStr">
+      <c r="A60" s="22" t="inlineStr">
         <is>
           <t>═══ SOUTH ZONE (Capacity: 0) ═══</t>
         </is>
@@ -1995,39 +3115,54 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="24" t="inlineStr">
+      <c r="A63" s="23" t="inlineStr">
         <is>
           <t>Fortnight</t>
         </is>
       </c>
-      <c r="B63" s="24" t="inlineStr">
+      <c r="B63" s="23" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="C63" s="24" t="inlineStr">
+      <c r="C63" s="23" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="D63" s="24" t="inlineStr">
+      <c r="D63" s="23" t="inlineStr">
         <is>
           <t>Outgoing</t>
         </is>
       </c>
-      <c r="E63" s="24" t="inlineStr">
+      <c r="E63" s="23" t="inlineStr">
         <is>
           <t>Incoming</t>
         </is>
       </c>
-      <c r="F63" s="24" t="inlineStr">
+      <c r="F63" s="23" t="inlineStr">
         <is>
           <t>Projected Inv</t>
         </is>
       </c>
-      <c r="G63" s="24" t="inlineStr">
+      <c r="G63" s="23" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H63" s="23" t="inlineStr">
         <is>
           <t>Flag</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Total Supply</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Total Demand</t>
         </is>
       </c>
     </row>
@@ -2049,12 +3184,24 @@
       <c r="E64" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F64" s="5">
         <f>$B$61+B64+E64-D64-C64</f>
         <v/>
       </c>
-      <c r="G64" s="5">
-        <f>IF(F64&lt;0,"STOCKOUT: SHIP HERE!",IF(F64&gt;$E$61+(H$61*ROUTE_CONFIG!$D$16),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G64" s="9">
+        <f>$E$61 + ($H$61 * ROUTE_CONFIG!$D$17)</f>
+        <v/>
+      </c>
+      <c r="H64" s="5">
+        <f>IF(F64&lt;0,"STOCKOUT: SHIP HERE!",IF(F64&gt;G64,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J64">
+        <f>B64+E64</f>
+        <v/>
+      </c>
+      <c r="K64">
+        <f>C64+D64</f>
         <v/>
       </c>
     </row>
@@ -2076,12 +3223,24 @@
       <c r="E65" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F65" s="5">
         <f>F64+B65+E65-D65-C65</f>
         <v/>
       </c>
-      <c r="G65" s="5">
-        <f>IF(F65&lt;0,"STOCKOUT: SHIP HERE!",IF(F65&gt;$E$61+(H$61*ROUTE_CONFIG!$D$16),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G65" s="9">
+        <f>$E$61 + ($H$61 * ROUTE_CONFIG!$D$17)</f>
+        <v/>
+      </c>
+      <c r="H65" s="5">
+        <f>IF(F65&lt;0,"STOCKOUT: SHIP HERE!",IF(F65&gt;G65,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J65">
+        <f>B65+E65</f>
+        <v/>
+      </c>
+      <c r="K65">
+        <f>C65+D65</f>
         <v/>
       </c>
     </row>
@@ -2103,12 +3262,24 @@
       <c r="E66" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F66" s="5">
         <f>F65+B66+E66-D66-C66</f>
         <v/>
       </c>
-      <c r="G66" s="5">
-        <f>IF(F66&lt;0,"STOCKOUT: SHIP HERE!",IF(F66&gt;$E$61+(H$61*ROUTE_CONFIG!$D$16),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G66" s="9">
+        <f>$E$61 + ($H$61 * ROUTE_CONFIG!$D$17)</f>
+        <v/>
+      </c>
+      <c r="H66" s="5">
+        <f>IF(F66&lt;0,"STOCKOUT: SHIP HERE!",IF(F66&gt;G66,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J66">
+        <f>B66+E66</f>
+        <v/>
+      </c>
+      <c r="K66">
+        <f>C66+D66</f>
         <v/>
       </c>
     </row>
@@ -2130,12 +3301,24 @@
       <c r="E67" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="5">
         <f>F66+B67+E67-D67-C67</f>
         <v/>
       </c>
-      <c r="G67" s="5">
-        <f>IF(F67&lt;0,"STOCKOUT: SHIP HERE!",IF(F67&gt;$E$61+(H$61*ROUTE_CONFIG!$D$16),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G67" s="9">
+        <f>$E$61 + ($H$61 * ROUTE_CONFIG!$D$17)</f>
+        <v/>
+      </c>
+      <c r="H67" s="5">
+        <f>IF(F67&lt;0,"STOCKOUT: SHIP HERE!",IF(F67&gt;G67,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J67">
+        <f>B67+E67</f>
+        <v/>
+      </c>
+      <c r="K67">
+        <f>C67+D67</f>
         <v/>
       </c>
     </row>
@@ -2157,12 +3340,24 @@
       <c r="E68" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F68" s="5">
         <f>F67+B68+E68-D68-C68</f>
         <v/>
       </c>
-      <c r="G68" s="5">
-        <f>IF(F68&lt;0,"STOCKOUT: SHIP HERE!",IF(F68&gt;$E$61+(H$61*ROUTE_CONFIG!$D$16),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G68" s="9">
+        <f>$E$61 + ($H$61 * ROUTE_CONFIG!$D$17)</f>
+        <v/>
+      </c>
+      <c r="H68" s="5">
+        <f>IF(F68&lt;0,"STOCKOUT: SHIP HERE!",IF(F68&gt;G68,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J68">
+        <f>B68+E68</f>
+        <v/>
+      </c>
+      <c r="K68">
+        <f>C68+D68</f>
         <v/>
       </c>
     </row>
@@ -2184,12 +3379,24 @@
       <c r="E69" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F69" s="16">
+      <c r="F69" s="5">
         <f>F68+B69+E69-D69-C69</f>
         <v/>
       </c>
-      <c r="G69" s="5">
-        <f>IF(F69&lt;0,"STOCKOUT: SHIP HERE!",IF(F69&gt;$E$61+(H$61*ROUTE_CONFIG!$D$16),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G69" s="9">
+        <f>$E$61 + ($H$61 * ROUTE_CONFIG!$D$17)</f>
+        <v/>
+      </c>
+      <c r="H69" s="5">
+        <f>IF(F69&lt;0,"STOCKOUT: SHIP HERE!",IF(F69&gt;G69,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J69">
+        <f>B69+E69</f>
+        <v/>
+      </c>
+      <c r="K69">
+        <f>C69+D69</f>
         <v/>
       </c>
     </row>
@@ -2211,12 +3418,24 @@
       <c r="E70" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="5">
         <f>F69+B70+E70-D70-C70</f>
         <v/>
       </c>
-      <c r="G70" s="5">
-        <f>IF(F70&lt;0,"STOCKOUT: SHIP HERE!",IF(F70&gt;$E$61+(H$61*ROUTE_CONFIG!$D$16),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G70" s="9">
+        <f>$E$61 + ($H$61 * ROUTE_CONFIG!$D$17)</f>
+        <v/>
+      </c>
+      <c r="H70" s="5">
+        <f>IF(F70&lt;0,"STOCKOUT: SHIP HERE!",IF(F70&gt;G70,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J70">
+        <f>B70+E70</f>
+        <v/>
+      </c>
+      <c r="K70">
+        <f>C70+D70</f>
         <v/>
       </c>
     </row>
@@ -2238,12 +3457,24 @@
       <c r="E71" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="5">
         <f>F70+B71+E71-D71-C71</f>
         <v/>
       </c>
-      <c r="G71" s="5">
-        <f>IF(F71&lt;0,"STOCKOUT: SHIP HERE!",IF(F71&gt;$E$61+(H$61*ROUTE_CONFIG!$D$16),"OVERFLOW: RENT!","OK"))</f>
+      <c r="G71" s="9">
+        <f>$E$61 + ($H$61 * ROUTE_CONFIG!$D$17)</f>
+        <v/>
+      </c>
+      <c r="H71" s="5">
+        <f>IF(F71&lt;0,"STOCKOUT: SHIP HERE!",IF(F71&gt;G71,"OVERFLOW: RENT!","OK"))</f>
+        <v/>
+      </c>
+      <c r="J71">
+        <f>B71+E71</f>
+        <v/>
+      </c>
+      <c r="K71">
+        <f>C71+D71</f>
         <v/>
       </c>
     </row>
@@ -2255,47 +3486,63 @@
     <mergeCell ref="A46:H46"/>
     <mergeCell ref="A32:H32"/>
   </mergeCells>
-  <conditionalFormatting sqref="G8:G15">
+  <conditionalFormatting sqref="F8:F15">
     <cfRule type="expression" priority="1" dxfId="0">
-      <formula>LEFT(G8,8)="STOCKOUT"</formula>
+      <formula>F8&lt;0</formula>
     </cfRule>
     <cfRule type="expression" priority="2" dxfId="1">
-      <formula>LEFT(G8,8)="OVERFLOW"</formula>
+      <formula>F8&gt;G8</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="2">
+      <formula>AND(F8&gt;=0, F8&lt;=G8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:G29">
-    <cfRule type="expression" priority="3" dxfId="0">
-      <formula>LEFT(G22,8)="STOCKOUT"</formula>
+  <conditionalFormatting sqref="F22:F29">
+    <cfRule type="expression" priority="4" dxfId="0">
+      <formula>F22&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" dxfId="1">
-      <formula>LEFT(G22,8)="OVERFLOW"</formula>
+    <cfRule type="expression" priority="5" dxfId="1">
+      <formula>F22&gt;G22</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="2">
+      <formula>AND(F22&gt;=0, F22&lt;=G22)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G43">
-    <cfRule type="expression" priority="5" dxfId="0">
-      <formula>LEFT(G36,8)="STOCKOUT"</formula>
+  <conditionalFormatting sqref="F36:F43">
+    <cfRule type="expression" priority="7" dxfId="0">
+      <formula>F36&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" dxfId="1">
-      <formula>LEFT(G36,8)="OVERFLOW"</formula>
+    <cfRule type="expression" priority="8" dxfId="1">
+      <formula>F36&gt;G36</formula>
+    </cfRule>
+    <cfRule type="expression" priority="9" dxfId="2">
+      <formula>AND(F36&gt;=0, F36&lt;=G36)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G57">
-    <cfRule type="expression" priority="7" dxfId="0">
-      <formula>LEFT(G50,8)="STOCKOUT"</formula>
+  <conditionalFormatting sqref="F50:F57">
+    <cfRule type="expression" priority="10" dxfId="0">
+      <formula>F50&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" priority="8" dxfId="1">
-      <formula>LEFT(G50,8)="OVERFLOW"</formula>
+    <cfRule type="expression" priority="11" dxfId="1">
+      <formula>F50&gt;G50</formula>
+    </cfRule>
+    <cfRule type="expression" priority="12" dxfId="2">
+      <formula>AND(F50&gt;=0, F50&lt;=G50)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64:G71">
-    <cfRule type="expression" priority="9" dxfId="0">
-      <formula>LEFT(G64,8)="STOCKOUT"</formula>
+  <conditionalFormatting sqref="F64:F71">
+    <cfRule type="expression" priority="13" dxfId="0">
+      <formula>F64&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" priority="10" dxfId="1">
-      <formula>LEFT(G64,8)="OVERFLOW"</formula>
+    <cfRule type="expression" priority="14" dxfId="1">
+      <formula>F64&gt;G64</formula>
+    </cfRule>
+    <cfRule type="expression" priority="15" dxfId="2">
+      <formula>AND(F64&gt;=0, F64&lt;=G64)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2305,7 +3552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2313,15 +3560,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2339,347 +3587,621 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="inlineStr">
-        <is>
-          <t>IMPORTANT: After entering shipments here, update INVENTORY_TETRIS Tab 2:</t>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>SHIPMENT LOG</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>• Add NEGATIVE quantity to Origin zone's 'Outgoing' column in the ORDER fortnight</t>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>From Zone</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>To Zone</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Transport Mode</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>Cost/Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>Total Cost</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>Ship FN</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>Lead Time</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>Arrive FN</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>• Add POSITIVE quantity to Destination zone's 'Incoming' column in ARRIVAL fortnight (Order + Lead Time)</t>
-        </is>
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 1</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="24">
+        <f>IF(ISBLANK(D6), 0, VLOOKUP(D6, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G6" s="24">
+        <f>IF(ISBLANK(D6), 0, E6*F6)</f>
+        <v/>
+      </c>
+      <c r="H6" s="25" t="n"/>
+      <c r="I6" s="26">
+        <f>IF(ISBLANK(D6), 0, VLOOKUP(D6, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J6" s="27">
+        <f>IF(ISBLANK(D6), 0, H6+I6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 2</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
+      <c r="F7" s="24">
+        <f>IF(ISBLANK(D7), 0, VLOOKUP(D7, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G7" s="24">
+        <f>IF(ISBLANK(D7), 0, E7*F7)</f>
+        <v/>
+      </c>
+      <c r="H7" s="25" t="n"/>
+      <c r="I7" s="26">
+        <f>IF(ISBLANK(D7), 0, VLOOKUP(D7, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J7" s="27">
+        <f>IF(ISBLANK(D7), 0, H7+I7)</f>
+        <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>SHIPMENT SCHEDULE</t>
-        </is>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 3</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="24">
+        <f>IF(ISBLANK(D8), 0, VLOOKUP(D8, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G8" s="24">
+        <f>IF(ISBLANK(D8), 0, E8*F8)</f>
+        <v/>
+      </c>
+      <c r="H8" s="25" t="n"/>
+      <c r="I8" s="26">
+        <f>IF(ISBLANK(D8), 0, VLOOKUP(D8, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J8" s="27">
+        <f>IF(ISBLANK(D8), 0, H8+I8)</f>
+        <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Fortnight</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>Origin</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>Destination</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>Mode</t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="H9" s="4" t="inlineStr">
-        <is>
-          <t>Lead Time</t>
-        </is>
-      </c>
-      <c r="I9" s="4" t="inlineStr">
-        <is>
-          <t>Arrival FN</t>
-        </is>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 4</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
+      <c r="F9" s="24">
+        <f>IF(ISBLANK(D9), 0, VLOOKUP(D9, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G9" s="24">
+        <f>IF(ISBLANK(D9), 0, E9*F9)</f>
+        <v/>
+      </c>
+      <c r="H9" s="25" t="n"/>
+      <c r="I9" s="26">
+        <f>IF(ISBLANK(D9), 0, VLOOKUP(D9, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J9" s="27">
+        <f>IF(ISBLANK(D9), 0, H9+I9)</f>
+        <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="inlineStr"/>
-      <c r="C10" s="6" t="inlineStr"/>
-      <c r="D10" s="6" t="inlineStr"/>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>Electroclean</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="inlineStr"/>
-      <c r="H10" s="26">
-        <f>IF(F10="Train",ROUTE_CONFIG!$B$6,IF(F10="Truck",ROUTE_CONFIG!$B$7,ROUTE_CONFIG!$B$8))</f>
-        <v/>
-      </c>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 5</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="n"/>
+      <c r="F10" s="24">
+        <f>IF(ISBLANK(D10), 0, VLOOKUP(D10, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G10" s="24">
+        <f>IF(ISBLANK(D10), 0, E10*F10)</f>
+        <v/>
+      </c>
+      <c r="H10" s="25" t="n"/>
       <c r="I10" s="26">
-        <f>IF(B10&lt;&gt;"",B10+H10,"")</f>
+        <f>IF(ISBLANK(D10), 0, VLOOKUP(D10, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J10" s="27">
+        <f>IF(ISBLANK(D10), 0, H10+I10)</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6" t="inlineStr"/>
-      <c r="C11" s="6" t="inlineStr"/>
-      <c r="D11" s="6" t="inlineStr"/>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>Electroclean</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="inlineStr"/>
-      <c r="H11" s="26">
-        <f>IF(F11="Train",ROUTE_CONFIG!$B$6,IF(F11="Truck",ROUTE_CONFIG!$B$7,ROUTE_CONFIG!$B$8))</f>
-        <v/>
-      </c>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 6</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
+      <c r="F11" s="24">
+        <f>IF(ISBLANK(D11), 0, VLOOKUP(D11, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G11" s="24">
+        <f>IF(ISBLANK(D11), 0, E11*F11)</f>
+        <v/>
+      </c>
+      <c r="H11" s="25" t="n"/>
       <c r="I11" s="26">
-        <f>IF(B11&lt;&gt;"",B11+H11,"")</f>
+        <f>IF(ISBLANK(D11), 0, VLOOKUP(D11, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J11" s="27">
+        <f>IF(ISBLANK(D11), 0, H11+I11)</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6" t="inlineStr"/>
-      <c r="C12" s="6" t="inlineStr"/>
-      <c r="D12" s="6" t="inlineStr"/>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>Electroclean</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="G12" s="6" t="inlineStr"/>
-      <c r="H12" s="26">
-        <f>IF(F12="Train",ROUTE_CONFIG!$B$6,IF(F12="Truck",ROUTE_CONFIG!$B$7,ROUTE_CONFIG!$B$8))</f>
-        <v/>
-      </c>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 7</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="24">
+        <f>IF(ISBLANK(D12), 0, VLOOKUP(D12, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G12" s="24">
+        <f>IF(ISBLANK(D12), 0, E12*F12)</f>
+        <v/>
+      </c>
+      <c r="H12" s="25" t="n"/>
       <c r="I12" s="26">
-        <f>IF(B12&lt;&gt;"",B12+H12,"")</f>
+        <f>IF(ISBLANK(D12), 0, VLOOKUP(D12, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J12" s="27">
+        <f>IF(ISBLANK(D12), 0, H12+I12)</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6" t="inlineStr"/>
-      <c r="C13" s="6" t="inlineStr"/>
-      <c r="D13" s="6" t="inlineStr"/>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>Electroclean</t>
-        </is>
-      </c>
-      <c r="F13" s="6" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="G13" s="6" t="inlineStr"/>
-      <c r="H13" s="26">
-        <f>IF(F13="Train",ROUTE_CONFIG!$B$6,IF(F13="Truck",ROUTE_CONFIG!$B$7,ROUTE_CONFIG!$B$8))</f>
-        <v/>
-      </c>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 8</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="24">
+        <f>IF(ISBLANK(D13), 0, VLOOKUP(D13, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G13" s="24">
+        <f>IF(ISBLANK(D13), 0, E13*F13)</f>
+        <v/>
+      </c>
+      <c r="H13" s="25" t="n"/>
       <c r="I13" s="26">
-        <f>IF(B13&lt;&gt;"",B13+H13,"")</f>
+        <f>IF(ISBLANK(D13), 0, VLOOKUP(D13, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J13" s="27">
+        <f>IF(ISBLANK(D13), 0, H13+I13)</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6" t="inlineStr"/>
-      <c r="C14" s="6" t="inlineStr"/>
-      <c r="D14" s="6" t="inlineStr"/>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>Electroclean</t>
-        </is>
-      </c>
-      <c r="F14" s="6" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="26">
-        <f>IF(F14="Train",ROUTE_CONFIG!$B$6,IF(F14="Truck",ROUTE_CONFIG!$B$7,ROUTE_CONFIG!$B$8))</f>
-        <v/>
-      </c>
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 9</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="n"/>
+      <c r="F14" s="24">
+        <f>IF(ISBLANK(D14), 0, VLOOKUP(D14, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G14" s="24">
+        <f>IF(ISBLANK(D14), 0, E14*F14)</f>
+        <v/>
+      </c>
+      <c r="H14" s="25" t="n"/>
       <c r="I14" s="26">
-        <f>IF(B14&lt;&gt;"",B14+H14,"")</f>
+        <f>IF(ISBLANK(D14), 0, VLOOKUP(D14, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J14" s="27">
+        <f>IF(ISBLANK(D14), 0, H14+I14)</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B15" s="6" t="inlineStr"/>
-      <c r="C15" s="6" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>Electroclean</t>
-        </is>
-      </c>
-      <c r="F15" s="6" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="G15" s="6" t="inlineStr"/>
-      <c r="H15" s="26">
-        <f>IF(F15="Train",ROUTE_CONFIG!$B$6,IF(F15="Truck",ROUTE_CONFIG!$B$7,ROUTE_CONFIG!$B$8))</f>
-        <v/>
-      </c>
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 10</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
+      <c r="F15" s="24">
+        <f>IF(ISBLANK(D15), 0, VLOOKUP(D15, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G15" s="24">
+        <f>IF(ISBLANK(D15), 0, E15*F15)</f>
+        <v/>
+      </c>
+      <c r="H15" s="25" t="n"/>
       <c r="I15" s="26">
-        <f>IF(B15&lt;&gt;"",B15+H15,"")</f>
+        <f>IF(ISBLANK(D15), 0, VLOOKUP(D15, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J15" s="27">
+        <f>IF(ISBLANK(D15), 0, H15+I15)</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B16" s="6" t="inlineStr"/>
-      <c r="C16" s="6" t="inlineStr"/>
-      <c r="D16" s="6" t="inlineStr"/>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>Electroclean</t>
-        </is>
-      </c>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="G16" s="6" t="inlineStr"/>
-      <c r="H16" s="26">
-        <f>IF(F16="Train",ROUTE_CONFIG!$B$6,IF(F16="Truck",ROUTE_CONFIG!$B$7,ROUTE_CONFIG!$B$8))</f>
-        <v/>
-      </c>
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 11</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="24">
+        <f>IF(ISBLANK(D16), 0, VLOOKUP(D16, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G16" s="24">
+        <f>IF(ISBLANK(D16), 0, E16*F16)</f>
+        <v/>
+      </c>
+      <c r="H16" s="25" t="n"/>
       <c r="I16" s="26">
-        <f>IF(B16&lt;&gt;"",B16+H16,"")</f>
+        <f>IF(ISBLANK(D16), 0, VLOOKUP(D16, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J16" s="27">
+        <f>IF(ISBLANK(D16), 0, H16+I16)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B17" s="6" t="inlineStr"/>
-      <c r="C17" s="6" t="inlineStr"/>
-      <c r="D17" s="6" t="inlineStr"/>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>Electroclean</t>
-        </is>
-      </c>
-      <c r="F17" s="6" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="G17" s="6" t="inlineStr"/>
-      <c r="H17" s="26">
-        <f>IF(F17="Train",ROUTE_CONFIG!$B$6,IF(F17="Truck",ROUTE_CONFIG!$B$7,ROUTE_CONFIG!$B$8))</f>
-        <v/>
-      </c>
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 12</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="24">
+        <f>IF(ISBLANK(D17), 0, VLOOKUP(D17, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G17" s="24">
+        <f>IF(ISBLANK(D17), 0, E17*F17)</f>
+        <v/>
+      </c>
+      <c r="H17" s="25" t="n"/>
       <c r="I17" s="26">
-        <f>IF(B17&lt;&gt;"",B17+H17,"")</f>
+        <f>IF(ISBLANK(D17), 0, VLOOKUP(D17, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J17" s="27">
+        <f>IF(ISBLANK(D17), 0, H17+I17)</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B18" s="6" t="inlineStr"/>
-      <c r="C18" s="6" t="inlineStr"/>
-      <c r="D18" s="6" t="inlineStr"/>
-      <c r="E18" s="6" t="inlineStr">
-        <is>
-          <t>Electroclean</t>
-        </is>
-      </c>
-      <c r="F18" s="6" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="G18" s="6" t="inlineStr"/>
-      <c r="H18" s="26">
-        <f>IF(F18="Train",ROUTE_CONFIG!$B$6,IF(F18="Truck",ROUTE_CONFIG!$B$7,ROUTE_CONFIG!$B$8))</f>
-        <v/>
-      </c>
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 13</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="24">
+        <f>IF(ISBLANK(D18), 0, VLOOKUP(D18, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G18" s="24">
+        <f>IF(ISBLANK(D18), 0, E18*F18)</f>
+        <v/>
+      </c>
+      <c r="H18" s="25" t="n"/>
       <c r="I18" s="26">
-        <f>IF(B18&lt;&gt;"",B18+H18,"")</f>
+        <f>IF(ISBLANK(D18), 0, VLOOKUP(D18, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J18" s="27">
+        <f>IF(ISBLANK(D18), 0, H18+I18)</f>
         <v/>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="B19" s="6" t="inlineStr"/>
-      <c r="C19" s="6" t="inlineStr"/>
-      <c r="D19" s="6" t="inlineStr"/>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>Electroclean</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="G19" s="6" t="inlineStr"/>
-      <c r="H19" s="26">
-        <f>IF(F19="Train",ROUTE_CONFIG!$B$6,IF(F19="Truck",ROUTE_CONFIG!$B$7,ROUTE_CONFIG!$B$8))</f>
-        <v/>
-      </c>
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 14</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
+      <c r="F19" s="24">
+        <f>IF(ISBLANK(D19), 0, VLOOKUP(D19, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G19" s="24">
+        <f>IF(ISBLANK(D19), 0, E19*F19)</f>
+        <v/>
+      </c>
+      <c r="H19" s="25" t="n"/>
       <c r="I19" s="26">
-        <f>IF(B19&lt;&gt;"",B19+H19,"")</f>
+        <f>IF(ISBLANK(D19), 0, VLOOKUP(D19, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J19" s="27">
+        <f>IF(ISBLANK(D19), 0, H19+I19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 15</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
+      <c r="F20" s="24">
+        <f>IF(ISBLANK(D20), 0, VLOOKUP(D20, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G20" s="24">
+        <f>IF(ISBLANK(D20), 0, E20*F20)</f>
+        <v/>
+      </c>
+      <c r="H20" s="25" t="n"/>
+      <c r="I20" s="26">
+        <f>IF(ISBLANK(D20), 0, VLOOKUP(D20, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J20" s="27">
+        <f>IF(ISBLANK(D20), 0, H20+I20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 16</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
+      <c r="F21" s="24">
+        <f>IF(ISBLANK(D21), 0, VLOOKUP(D21, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G21" s="24">
+        <f>IF(ISBLANK(D21), 0, E21*F21)</f>
+        <v/>
+      </c>
+      <c r="H21" s="25" t="n"/>
+      <c r="I21" s="26">
+        <f>IF(ISBLANK(D21), 0, VLOOKUP(D21, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J21" s="27">
+        <f>IF(ISBLANK(D21), 0, H21+I21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 17</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
+      <c r="F22" s="24">
+        <f>IF(ISBLANK(D22), 0, VLOOKUP(D22, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G22" s="24">
+        <f>IF(ISBLANK(D22), 0, E22*F22)</f>
+        <v/>
+      </c>
+      <c r="H22" s="25" t="n"/>
+      <c r="I22" s="26">
+        <f>IF(ISBLANK(D22), 0, VLOOKUP(D22, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J22" s="27">
+        <f>IF(ISBLANK(D22), 0, H22+I22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 18</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="n"/>
+      <c r="F23" s="24">
+        <f>IF(ISBLANK(D23), 0, VLOOKUP(D23, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G23" s="24">
+        <f>IF(ISBLANK(D23), 0, E23*F23)</f>
+        <v/>
+      </c>
+      <c r="H23" s="25" t="n"/>
+      <c r="I23" s="26">
+        <f>IF(ISBLANK(D23), 0, VLOOKUP(D23, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J23" s="27">
+        <f>IF(ISBLANK(D23), 0, H23+I23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 19</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="24">
+        <f>IF(ISBLANK(D24), 0, VLOOKUP(D24, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G24" s="24">
+        <f>IF(ISBLANK(D24), 0, E24*F24)</f>
+        <v/>
+      </c>
+      <c r="H24" s="25" t="n"/>
+      <c r="I24" s="26">
+        <f>IF(ISBLANK(D24), 0, VLOOKUP(D24, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J24" s="27">
+        <f>IF(ISBLANK(D24), 0, H24+I24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>Shipment 20</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="n"/>
+      <c r="F25" s="24">
+        <f>IF(ISBLANK(D25), 0, VLOOKUP(D25, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
+        <v/>
+      </c>
+      <c r="G25" s="24">
+        <f>IF(ISBLANK(D25), 0, E25*F25)</f>
+        <v/>
+      </c>
+      <c r="H25" s="25" t="n"/>
+      <c r="I25" s="26">
+        <f>IF(ISBLANK(D25), 0, VLOOKUP(D25, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="J25" s="27">
+        <f>IF(ISBLANK(D25), 0, H25+I25)</f>
         <v/>
       </c>
     </row>
@@ -2694,415 +4216,1114 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>LOGISTICS DECISIONS - ExSim Upload Format (Side-by-Side)</t>
+          <t>LOGISTICS DECISIONS - ExSim Upload Format</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Copy these values to ExSim Logistics upload</t>
+          <t>Copy these values to the web platform.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Warehouses</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>Shipments</t>
+          <t>Planned Shipments</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>Zone</t>
+          <t>From</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Buy Modules</t>
+          <t>To</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Rent Modules</t>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>F1</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>Fortnight</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>Origin</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>Destination</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>F7</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>F8</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>Center</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="26">
-        <f>INVENTORY_TETRIS!H5</f>
-        <v/>
-      </c>
-      <c r="F6" s="26">
+      <c r="A6" s="9">
+        <f>SHIPMENT_BUILDER!B6</f>
+        <v/>
+      </c>
+      <c r="B6" s="9">
+        <f>SHIPMENT_BUILDER!C6</f>
+        <v/>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D6" s="9">
+        <f>SHIPMENT_BUILDER!E6</f>
+        <v/>
+      </c>
+      <c r="E6" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$6=1, SHIPMENT_BUILDER!$E$6, 0)</f>
+        <v/>
+      </c>
+      <c r="F6" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$6=2, SHIPMENT_BUILDER!$E$6, 0)</f>
+        <v/>
+      </c>
+      <c r="G6" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$6=3, SHIPMENT_BUILDER!$E$6, 0)</f>
+        <v/>
+      </c>
+      <c r="H6" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$6=4, SHIPMENT_BUILDER!$E$6, 0)</f>
+        <v/>
+      </c>
+      <c r="I6" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$6=5, SHIPMENT_BUILDER!$E$6, 0)</f>
+        <v/>
+      </c>
+      <c r="J6" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$6=6, SHIPMENT_BUILDER!$E$6, 0)</f>
+        <v/>
+      </c>
+      <c r="K6" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$6=7, SHIPMENT_BUILDER!$E$6, 0)</f>
+        <v/>
+      </c>
+      <c r="L6" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$6=8, SHIPMENT_BUILDER!$E$6, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9">
+        <f>SHIPMENT_BUILDER!B7</f>
+        <v/>
+      </c>
+      <c r="B7" s="9">
+        <f>SHIPMENT_BUILDER!C7</f>
+        <v/>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D7" s="9">
+        <f>SHIPMENT_BUILDER!E7</f>
+        <v/>
+      </c>
+      <c r="E7" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$7=1, SHIPMENT_BUILDER!$E$7, 0)</f>
+        <v/>
+      </c>
+      <c r="F7" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$7=2, SHIPMENT_BUILDER!$E$7, 0)</f>
+        <v/>
+      </c>
+      <c r="G7" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$7=3, SHIPMENT_BUILDER!$E$7, 0)</f>
+        <v/>
+      </c>
+      <c r="H7" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$7=4, SHIPMENT_BUILDER!$E$7, 0)</f>
+        <v/>
+      </c>
+      <c r="I7" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$7=5, SHIPMENT_BUILDER!$E$7, 0)</f>
+        <v/>
+      </c>
+      <c r="J7" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$7=6, SHIPMENT_BUILDER!$E$7, 0)</f>
+        <v/>
+      </c>
+      <c r="K7" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$7=7, SHIPMENT_BUILDER!$E$7, 0)</f>
+        <v/>
+      </c>
+      <c r="L7" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$7=8, SHIPMENT_BUILDER!$E$7, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9">
+        <f>SHIPMENT_BUILDER!B8</f>
+        <v/>
+      </c>
+      <c r="B8" s="9">
+        <f>SHIPMENT_BUILDER!C8</f>
+        <v/>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D8" s="9">
+        <f>SHIPMENT_BUILDER!E8</f>
+        <v/>
+      </c>
+      <c r="E8" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$8=1, SHIPMENT_BUILDER!$E$8, 0)</f>
+        <v/>
+      </c>
+      <c r="F8" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$8=2, SHIPMENT_BUILDER!$E$8, 0)</f>
+        <v/>
+      </c>
+      <c r="G8" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$8=3, SHIPMENT_BUILDER!$E$8, 0)</f>
+        <v/>
+      </c>
+      <c r="H8" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$8=4, SHIPMENT_BUILDER!$E$8, 0)</f>
+        <v/>
+      </c>
+      <c r="I8" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$8=5, SHIPMENT_BUILDER!$E$8, 0)</f>
+        <v/>
+      </c>
+      <c r="J8" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$8=6, SHIPMENT_BUILDER!$E$8, 0)</f>
+        <v/>
+      </c>
+      <c r="K8" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$8=7, SHIPMENT_BUILDER!$E$8, 0)</f>
+        <v/>
+      </c>
+      <c r="L8" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$8=8, SHIPMENT_BUILDER!$E$8, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9">
+        <f>SHIPMENT_BUILDER!B9</f>
+        <v/>
+      </c>
+      <c r="B9" s="9">
+        <f>SHIPMENT_BUILDER!C9</f>
+        <v/>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D9" s="9">
+        <f>SHIPMENT_BUILDER!E9</f>
+        <v/>
+      </c>
+      <c r="E9" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$9=1, SHIPMENT_BUILDER!$E$9, 0)</f>
+        <v/>
+      </c>
+      <c r="F9" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$9=2, SHIPMENT_BUILDER!$E$9, 0)</f>
+        <v/>
+      </c>
+      <c r="G9" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$9=3, SHIPMENT_BUILDER!$E$9, 0)</f>
+        <v/>
+      </c>
+      <c r="H9" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$9=4, SHIPMENT_BUILDER!$E$9, 0)</f>
+        <v/>
+      </c>
+      <c r="I9" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$9=5, SHIPMENT_BUILDER!$E$9, 0)</f>
+        <v/>
+      </c>
+      <c r="J9" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$9=6, SHIPMENT_BUILDER!$E$9, 0)</f>
+        <v/>
+      </c>
+      <c r="K9" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$9=7, SHIPMENT_BUILDER!$E$9, 0)</f>
+        <v/>
+      </c>
+      <c r="L9" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$9=8, SHIPMENT_BUILDER!$E$9, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9">
         <f>SHIPMENT_BUILDER!B10</f>
         <v/>
       </c>
-      <c r="G6" s="26">
+      <c r="B10" s="9">
         <f>SHIPMENT_BUILDER!C10</f>
         <v/>
       </c>
-      <c r="H6" s="26">
-        <f>SHIPMENT_BUILDER!D10</f>
-        <v/>
-      </c>
-      <c r="I6" s="26">
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D10" s="9">
         <f>SHIPMENT_BUILDER!E10</f>
         <v/>
       </c>
-      <c r="J6" s="26">
-        <f>SHIPMENT_BUILDER!F10</f>
-        <v/>
-      </c>
-      <c r="K6" s="26">
-        <f>SHIPMENT_BUILDER!G10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="26">
-        <f>INVENTORY_TETRIS!H19</f>
-        <v/>
-      </c>
-      <c r="F7" s="26">
+      <c r="E10" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$10=1, SHIPMENT_BUILDER!$E$10, 0)</f>
+        <v/>
+      </c>
+      <c r="F10" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$10=2, SHIPMENT_BUILDER!$E$10, 0)</f>
+        <v/>
+      </c>
+      <c r="G10" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$10=3, SHIPMENT_BUILDER!$E$10, 0)</f>
+        <v/>
+      </c>
+      <c r="H10" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$10=4, SHIPMENT_BUILDER!$E$10, 0)</f>
+        <v/>
+      </c>
+      <c r="I10" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$10=5, SHIPMENT_BUILDER!$E$10, 0)</f>
+        <v/>
+      </c>
+      <c r="J10" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$10=6, SHIPMENT_BUILDER!$E$10, 0)</f>
+        <v/>
+      </c>
+      <c r="K10" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$10=7, SHIPMENT_BUILDER!$E$10, 0)</f>
+        <v/>
+      </c>
+      <c r="L10" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$10=8, SHIPMENT_BUILDER!$E$10, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9">
         <f>SHIPMENT_BUILDER!B11</f>
         <v/>
       </c>
-      <c r="G7" s="26">
+      <c r="B11" s="9">
         <f>SHIPMENT_BUILDER!C11</f>
         <v/>
       </c>
-      <c r="H7" s="26">
-        <f>SHIPMENT_BUILDER!D11</f>
-        <v/>
-      </c>
-      <c r="I7" s="26">
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D11" s="9">
         <f>SHIPMENT_BUILDER!E11</f>
         <v/>
       </c>
-      <c r="J7" s="26">
-        <f>SHIPMENT_BUILDER!F11</f>
-        <v/>
-      </c>
-      <c r="K7" s="26">
-        <f>SHIPMENT_BUILDER!G11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="26">
-        <f>INVENTORY_TETRIS!H33</f>
-        <v/>
-      </c>
-      <c r="F8" s="26">
+      <c r="E11" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$11=1, SHIPMENT_BUILDER!$E$11, 0)</f>
+        <v/>
+      </c>
+      <c r="F11" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$11=2, SHIPMENT_BUILDER!$E$11, 0)</f>
+        <v/>
+      </c>
+      <c r="G11" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$11=3, SHIPMENT_BUILDER!$E$11, 0)</f>
+        <v/>
+      </c>
+      <c r="H11" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$11=4, SHIPMENT_BUILDER!$E$11, 0)</f>
+        <v/>
+      </c>
+      <c r="I11" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$11=5, SHIPMENT_BUILDER!$E$11, 0)</f>
+        <v/>
+      </c>
+      <c r="J11" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$11=6, SHIPMENT_BUILDER!$E$11, 0)</f>
+        <v/>
+      </c>
+      <c r="K11" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$11=7, SHIPMENT_BUILDER!$E$11, 0)</f>
+        <v/>
+      </c>
+      <c r="L11" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$11=8, SHIPMENT_BUILDER!$E$11, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9">
         <f>SHIPMENT_BUILDER!B12</f>
         <v/>
       </c>
-      <c r="G8" s="26">
+      <c r="B12" s="9">
         <f>SHIPMENT_BUILDER!C12</f>
         <v/>
       </c>
-      <c r="H8" s="26">
-        <f>SHIPMENT_BUILDER!D12</f>
-        <v/>
-      </c>
-      <c r="I8" s="26">
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D12" s="9">
         <f>SHIPMENT_BUILDER!E12</f>
         <v/>
       </c>
-      <c r="J8" s="26">
-        <f>SHIPMENT_BUILDER!F12</f>
-        <v/>
-      </c>
-      <c r="K8" s="26">
-        <f>SHIPMENT_BUILDER!G12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="12" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="26">
-        <f>INVENTORY_TETRIS!H47</f>
-        <v/>
-      </c>
-      <c r="F9" s="26">
+      <c r="E12" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$12=1, SHIPMENT_BUILDER!$E$12, 0)</f>
+        <v/>
+      </c>
+      <c r="F12" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$12=2, SHIPMENT_BUILDER!$E$12, 0)</f>
+        <v/>
+      </c>
+      <c r="G12" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$12=3, SHIPMENT_BUILDER!$E$12, 0)</f>
+        <v/>
+      </c>
+      <c r="H12" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$12=4, SHIPMENT_BUILDER!$E$12, 0)</f>
+        <v/>
+      </c>
+      <c r="I12" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$12=5, SHIPMENT_BUILDER!$E$12, 0)</f>
+        <v/>
+      </c>
+      <c r="J12" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$12=6, SHIPMENT_BUILDER!$E$12, 0)</f>
+        <v/>
+      </c>
+      <c r="K12" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$12=7, SHIPMENT_BUILDER!$E$12, 0)</f>
+        <v/>
+      </c>
+      <c r="L12" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$12=8, SHIPMENT_BUILDER!$E$12, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9">
         <f>SHIPMENT_BUILDER!B13</f>
         <v/>
       </c>
-      <c r="G9" s="26">
+      <c r="B13" s="9">
         <f>SHIPMENT_BUILDER!C13</f>
         <v/>
       </c>
-      <c r="H9" s="26">
-        <f>SHIPMENT_BUILDER!D13</f>
-        <v/>
-      </c>
-      <c r="I9" s="26">
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D13" s="9">
         <f>SHIPMENT_BUILDER!E13</f>
         <v/>
       </c>
-      <c r="J9" s="26">
-        <f>SHIPMENT_BUILDER!F13</f>
-        <v/>
-      </c>
-      <c r="K9" s="26">
-        <f>SHIPMENT_BUILDER!G13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="13" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="26">
-        <f>INVENTORY_TETRIS!H61</f>
-        <v/>
-      </c>
-      <c r="F10" s="26">
+      <c r="E13" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$13=1, SHIPMENT_BUILDER!$E$13, 0)</f>
+        <v/>
+      </c>
+      <c r="F13" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$13=2, SHIPMENT_BUILDER!$E$13, 0)</f>
+        <v/>
+      </c>
+      <c r="G13" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$13=3, SHIPMENT_BUILDER!$E$13, 0)</f>
+        <v/>
+      </c>
+      <c r="H13" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$13=4, SHIPMENT_BUILDER!$E$13, 0)</f>
+        <v/>
+      </c>
+      <c r="I13" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$13=5, SHIPMENT_BUILDER!$E$13, 0)</f>
+        <v/>
+      </c>
+      <c r="J13" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$13=6, SHIPMENT_BUILDER!$E$13, 0)</f>
+        <v/>
+      </c>
+      <c r="K13" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$13=7, SHIPMENT_BUILDER!$E$13, 0)</f>
+        <v/>
+      </c>
+      <c r="L13" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$13=8, SHIPMENT_BUILDER!$E$13, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9">
         <f>SHIPMENT_BUILDER!B14</f>
         <v/>
       </c>
-      <c r="G10" s="26">
+      <c r="B14" s="9">
         <f>SHIPMENT_BUILDER!C14</f>
         <v/>
       </c>
-      <c r="H10" s="26">
-        <f>SHIPMENT_BUILDER!D14</f>
-        <v/>
-      </c>
-      <c r="I10" s="26">
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D14" s="9">
         <f>SHIPMENT_BUILDER!E14</f>
         <v/>
       </c>
-      <c r="J10" s="26">
-        <f>SHIPMENT_BUILDER!F14</f>
-        <v/>
-      </c>
-      <c r="K10" s="26">
-        <f>SHIPMENT_BUILDER!G14</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="F11" s="26">
+      <c r="E14" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$14=1, SHIPMENT_BUILDER!$E$14, 0)</f>
+        <v/>
+      </c>
+      <c r="F14" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$14=2, SHIPMENT_BUILDER!$E$14, 0)</f>
+        <v/>
+      </c>
+      <c r="G14" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$14=3, SHIPMENT_BUILDER!$E$14, 0)</f>
+        <v/>
+      </c>
+      <c r="H14" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$14=4, SHIPMENT_BUILDER!$E$14, 0)</f>
+        <v/>
+      </c>
+      <c r="I14" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$14=5, SHIPMENT_BUILDER!$E$14, 0)</f>
+        <v/>
+      </c>
+      <c r="J14" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$14=6, SHIPMENT_BUILDER!$E$14, 0)</f>
+        <v/>
+      </c>
+      <c r="K14" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$14=7, SHIPMENT_BUILDER!$E$14, 0)</f>
+        <v/>
+      </c>
+      <c r="L14" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$14=8, SHIPMENT_BUILDER!$E$14, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9">
         <f>SHIPMENT_BUILDER!B15</f>
         <v/>
       </c>
-      <c r="G11" s="26">
+      <c r="B15" s="9">
         <f>SHIPMENT_BUILDER!C15</f>
         <v/>
       </c>
-      <c r="H11" s="26">
-        <f>SHIPMENT_BUILDER!D15</f>
-        <v/>
-      </c>
-      <c r="I11" s="26">
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D15" s="9">
         <f>SHIPMENT_BUILDER!E15</f>
         <v/>
       </c>
-      <c r="J11" s="26">
-        <f>SHIPMENT_BUILDER!F15</f>
-        <v/>
-      </c>
-      <c r="K11" s="26">
-        <f>SHIPMENT_BUILDER!G15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="F12" s="26">
+      <c r="E15" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$15=1, SHIPMENT_BUILDER!$E$15, 0)</f>
+        <v/>
+      </c>
+      <c r="F15" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$15=2, SHIPMENT_BUILDER!$E$15, 0)</f>
+        <v/>
+      </c>
+      <c r="G15" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$15=3, SHIPMENT_BUILDER!$E$15, 0)</f>
+        <v/>
+      </c>
+      <c r="H15" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$15=4, SHIPMENT_BUILDER!$E$15, 0)</f>
+        <v/>
+      </c>
+      <c r="I15" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$15=5, SHIPMENT_BUILDER!$E$15, 0)</f>
+        <v/>
+      </c>
+      <c r="J15" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$15=6, SHIPMENT_BUILDER!$E$15, 0)</f>
+        <v/>
+      </c>
+      <c r="K15" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$15=7, SHIPMENT_BUILDER!$E$15, 0)</f>
+        <v/>
+      </c>
+      <c r="L15" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$15=8, SHIPMENT_BUILDER!$E$15, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9">
         <f>SHIPMENT_BUILDER!B16</f>
         <v/>
       </c>
-      <c r="G12" s="26">
+      <c r="B16" s="9">
         <f>SHIPMENT_BUILDER!C16</f>
         <v/>
       </c>
-      <c r="H12" s="26">
-        <f>SHIPMENT_BUILDER!D16</f>
-        <v/>
-      </c>
-      <c r="I12" s="26">
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D16" s="9">
         <f>SHIPMENT_BUILDER!E16</f>
         <v/>
       </c>
-      <c r="J12" s="26">
-        <f>SHIPMENT_BUILDER!F16</f>
-        <v/>
-      </c>
-      <c r="K12" s="26">
-        <f>SHIPMENT_BUILDER!G16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13" s="26">
+      <c r="E16" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$16=1, SHIPMENT_BUILDER!$E$16, 0)</f>
+        <v/>
+      </c>
+      <c r="F16" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$16=2, SHIPMENT_BUILDER!$E$16, 0)</f>
+        <v/>
+      </c>
+      <c r="G16" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$16=3, SHIPMENT_BUILDER!$E$16, 0)</f>
+        <v/>
+      </c>
+      <c r="H16" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$16=4, SHIPMENT_BUILDER!$E$16, 0)</f>
+        <v/>
+      </c>
+      <c r="I16" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$16=5, SHIPMENT_BUILDER!$E$16, 0)</f>
+        <v/>
+      </c>
+      <c r="J16" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$16=6, SHIPMENT_BUILDER!$E$16, 0)</f>
+        <v/>
+      </c>
+      <c r="K16" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$16=7, SHIPMENT_BUILDER!$E$16, 0)</f>
+        <v/>
+      </c>
+      <c r="L16" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$16=8, SHIPMENT_BUILDER!$E$16, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9">
         <f>SHIPMENT_BUILDER!B17</f>
         <v/>
       </c>
-      <c r="G13" s="26">
+      <c r="B17" s="9">
         <f>SHIPMENT_BUILDER!C17</f>
         <v/>
       </c>
-      <c r="H13" s="26">
-        <f>SHIPMENT_BUILDER!D17</f>
-        <v/>
-      </c>
-      <c r="I13" s="26">
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D17" s="9">
         <f>SHIPMENT_BUILDER!E17</f>
         <v/>
       </c>
-      <c r="J13" s="26">
-        <f>SHIPMENT_BUILDER!F17</f>
-        <v/>
-      </c>
-      <c r="K13" s="26">
-        <f>SHIPMENT_BUILDER!G17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="F14" s="26">
+      <c r="E17" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$17=1, SHIPMENT_BUILDER!$E$17, 0)</f>
+        <v/>
+      </c>
+      <c r="F17" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$17=2, SHIPMENT_BUILDER!$E$17, 0)</f>
+        <v/>
+      </c>
+      <c r="G17" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$17=3, SHIPMENT_BUILDER!$E$17, 0)</f>
+        <v/>
+      </c>
+      <c r="H17" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$17=4, SHIPMENT_BUILDER!$E$17, 0)</f>
+        <v/>
+      </c>
+      <c r="I17" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$17=5, SHIPMENT_BUILDER!$E$17, 0)</f>
+        <v/>
+      </c>
+      <c r="J17" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$17=6, SHIPMENT_BUILDER!$E$17, 0)</f>
+        <v/>
+      </c>
+      <c r="K17" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$17=7, SHIPMENT_BUILDER!$E$17, 0)</f>
+        <v/>
+      </c>
+      <c r="L17" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$17=8, SHIPMENT_BUILDER!$E$17, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9">
         <f>SHIPMENT_BUILDER!B18</f>
         <v/>
       </c>
-      <c r="G14" s="26">
+      <c r="B18" s="9">
         <f>SHIPMENT_BUILDER!C18</f>
         <v/>
       </c>
-      <c r="H14" s="26">
-        <f>SHIPMENT_BUILDER!D18</f>
-        <v/>
-      </c>
-      <c r="I14" s="26">
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D18" s="9">
         <f>SHIPMENT_BUILDER!E18</f>
         <v/>
       </c>
-      <c r="J14" s="26">
-        <f>SHIPMENT_BUILDER!F18</f>
-        <v/>
-      </c>
-      <c r="K14" s="26">
-        <f>SHIPMENT_BUILDER!G18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" s="26">
+      <c r="E18" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$18=1, SHIPMENT_BUILDER!$E$18, 0)</f>
+        <v/>
+      </c>
+      <c r="F18" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$18=2, SHIPMENT_BUILDER!$E$18, 0)</f>
+        <v/>
+      </c>
+      <c r="G18" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$18=3, SHIPMENT_BUILDER!$E$18, 0)</f>
+        <v/>
+      </c>
+      <c r="H18" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$18=4, SHIPMENT_BUILDER!$E$18, 0)</f>
+        <v/>
+      </c>
+      <c r="I18" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$18=5, SHIPMENT_BUILDER!$E$18, 0)</f>
+        <v/>
+      </c>
+      <c r="J18" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$18=6, SHIPMENT_BUILDER!$E$18, 0)</f>
+        <v/>
+      </c>
+      <c r="K18" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$18=7, SHIPMENT_BUILDER!$E$18, 0)</f>
+        <v/>
+      </c>
+      <c r="L18" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$18=8, SHIPMENT_BUILDER!$E$18, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9">
         <f>SHIPMENT_BUILDER!B19</f>
         <v/>
       </c>
-      <c r="G15" s="26">
+      <c r="B19" s="9">
         <f>SHIPMENT_BUILDER!C19</f>
         <v/>
       </c>
-      <c r="H15" s="26">
-        <f>SHIPMENT_BUILDER!D19</f>
-        <v/>
-      </c>
-      <c r="I15" s="26">
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D19" s="9">
         <f>SHIPMENT_BUILDER!E19</f>
         <v/>
       </c>
-      <c r="J15" s="26">
-        <f>SHIPMENT_BUILDER!F19</f>
-        <v/>
-      </c>
-      <c r="K15" s="26">
-        <f>SHIPMENT_BUILDER!G19</f>
+      <c r="E19" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$19=1, SHIPMENT_BUILDER!$E$19, 0)</f>
+        <v/>
+      </c>
+      <c r="F19" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$19=2, SHIPMENT_BUILDER!$E$19, 0)</f>
+        <v/>
+      </c>
+      <c r="G19" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$19=3, SHIPMENT_BUILDER!$E$19, 0)</f>
+        <v/>
+      </c>
+      <c r="H19" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$19=4, SHIPMENT_BUILDER!$E$19, 0)</f>
+        <v/>
+      </c>
+      <c r="I19" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$19=5, SHIPMENT_BUILDER!$E$19, 0)</f>
+        <v/>
+      </c>
+      <c r="J19" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$19=6, SHIPMENT_BUILDER!$E$19, 0)</f>
+        <v/>
+      </c>
+      <c r="K19" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$19=7, SHIPMENT_BUILDER!$E$19, 0)</f>
+        <v/>
+      </c>
+      <c r="L19" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$19=8, SHIPMENT_BUILDER!$E$19, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9">
+        <f>SHIPMENT_BUILDER!B20</f>
+        <v/>
+      </c>
+      <c r="B20" s="9">
+        <f>SHIPMENT_BUILDER!C20</f>
+        <v/>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D20" s="9">
+        <f>SHIPMENT_BUILDER!E20</f>
+        <v/>
+      </c>
+      <c r="E20" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$20=1, SHIPMENT_BUILDER!$E$20, 0)</f>
+        <v/>
+      </c>
+      <c r="F20" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$20=2, SHIPMENT_BUILDER!$E$20, 0)</f>
+        <v/>
+      </c>
+      <c r="G20" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$20=3, SHIPMENT_BUILDER!$E$20, 0)</f>
+        <v/>
+      </c>
+      <c r="H20" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$20=4, SHIPMENT_BUILDER!$E$20, 0)</f>
+        <v/>
+      </c>
+      <c r="I20" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$20=5, SHIPMENT_BUILDER!$E$20, 0)</f>
+        <v/>
+      </c>
+      <c r="J20" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$20=6, SHIPMENT_BUILDER!$E$20, 0)</f>
+        <v/>
+      </c>
+      <c r="K20" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$20=7, SHIPMENT_BUILDER!$E$20, 0)</f>
+        <v/>
+      </c>
+      <c r="L20" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$20=8, SHIPMENT_BUILDER!$E$20, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9">
+        <f>SHIPMENT_BUILDER!B21</f>
+        <v/>
+      </c>
+      <c r="B21" s="9">
+        <f>SHIPMENT_BUILDER!C21</f>
+        <v/>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D21" s="9">
+        <f>SHIPMENT_BUILDER!E21</f>
+        <v/>
+      </c>
+      <c r="E21" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$21=1, SHIPMENT_BUILDER!$E$21, 0)</f>
+        <v/>
+      </c>
+      <c r="F21" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$21=2, SHIPMENT_BUILDER!$E$21, 0)</f>
+        <v/>
+      </c>
+      <c r="G21" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$21=3, SHIPMENT_BUILDER!$E$21, 0)</f>
+        <v/>
+      </c>
+      <c r="H21" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$21=4, SHIPMENT_BUILDER!$E$21, 0)</f>
+        <v/>
+      </c>
+      <c r="I21" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$21=5, SHIPMENT_BUILDER!$E$21, 0)</f>
+        <v/>
+      </c>
+      <c r="J21" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$21=6, SHIPMENT_BUILDER!$E$21, 0)</f>
+        <v/>
+      </c>
+      <c r="K21" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$21=7, SHIPMENT_BUILDER!$E$21, 0)</f>
+        <v/>
+      </c>
+      <c r="L21" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$21=8, SHIPMENT_BUILDER!$E$21, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9">
+        <f>SHIPMENT_BUILDER!B22</f>
+        <v/>
+      </c>
+      <c r="B22" s="9">
+        <f>SHIPMENT_BUILDER!C22</f>
+        <v/>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D22" s="9">
+        <f>SHIPMENT_BUILDER!E22</f>
+        <v/>
+      </c>
+      <c r="E22" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$22=1, SHIPMENT_BUILDER!$E$22, 0)</f>
+        <v/>
+      </c>
+      <c r="F22" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$22=2, SHIPMENT_BUILDER!$E$22, 0)</f>
+        <v/>
+      </c>
+      <c r="G22" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$22=3, SHIPMENT_BUILDER!$E$22, 0)</f>
+        <v/>
+      </c>
+      <c r="H22" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$22=4, SHIPMENT_BUILDER!$E$22, 0)</f>
+        <v/>
+      </c>
+      <c r="I22" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$22=5, SHIPMENT_BUILDER!$E$22, 0)</f>
+        <v/>
+      </c>
+      <c r="J22" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$22=6, SHIPMENT_BUILDER!$E$22, 0)</f>
+        <v/>
+      </c>
+      <c r="K22" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$22=7, SHIPMENT_BUILDER!$E$22, 0)</f>
+        <v/>
+      </c>
+      <c r="L22" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$22=8, SHIPMENT_BUILDER!$E$22, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9">
+        <f>SHIPMENT_BUILDER!B23</f>
+        <v/>
+      </c>
+      <c r="B23" s="9">
+        <f>SHIPMENT_BUILDER!C23</f>
+        <v/>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D23" s="9">
+        <f>SHIPMENT_BUILDER!E23</f>
+        <v/>
+      </c>
+      <c r="E23" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$23=1, SHIPMENT_BUILDER!$E$23, 0)</f>
+        <v/>
+      </c>
+      <c r="F23" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$23=2, SHIPMENT_BUILDER!$E$23, 0)</f>
+        <v/>
+      </c>
+      <c r="G23" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$23=3, SHIPMENT_BUILDER!$E$23, 0)</f>
+        <v/>
+      </c>
+      <c r="H23" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$23=4, SHIPMENT_BUILDER!$E$23, 0)</f>
+        <v/>
+      </c>
+      <c r="I23" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$23=5, SHIPMENT_BUILDER!$E$23, 0)</f>
+        <v/>
+      </c>
+      <c r="J23" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$23=6, SHIPMENT_BUILDER!$E$23, 0)</f>
+        <v/>
+      </c>
+      <c r="K23" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$23=7, SHIPMENT_BUILDER!$E$23, 0)</f>
+        <v/>
+      </c>
+      <c r="L23" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$23=8, SHIPMENT_BUILDER!$E$23, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9">
+        <f>SHIPMENT_BUILDER!B24</f>
+        <v/>
+      </c>
+      <c r="B24" s="9">
+        <f>SHIPMENT_BUILDER!C24</f>
+        <v/>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D24" s="9">
+        <f>SHIPMENT_BUILDER!E24</f>
+        <v/>
+      </c>
+      <c r="E24" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$24=1, SHIPMENT_BUILDER!$E$24, 0)</f>
+        <v/>
+      </c>
+      <c r="F24" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$24=2, SHIPMENT_BUILDER!$E$24, 0)</f>
+        <v/>
+      </c>
+      <c r="G24" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$24=3, SHIPMENT_BUILDER!$E$24, 0)</f>
+        <v/>
+      </c>
+      <c r="H24" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$24=4, SHIPMENT_BUILDER!$E$24, 0)</f>
+        <v/>
+      </c>
+      <c r="I24" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$24=5, SHIPMENT_BUILDER!$E$24, 0)</f>
+        <v/>
+      </c>
+      <c r="J24" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$24=6, SHIPMENT_BUILDER!$E$24, 0)</f>
+        <v/>
+      </c>
+      <c r="K24" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$24=7, SHIPMENT_BUILDER!$E$24, 0)</f>
+        <v/>
+      </c>
+      <c r="L24" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$24=8, SHIPMENT_BUILDER!$E$24, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9">
+        <f>SHIPMENT_BUILDER!B25</f>
+        <v/>
+      </c>
+      <c r="B25" s="9">
+        <f>SHIPMENT_BUILDER!C25</f>
+        <v/>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>Electroclean</t>
+        </is>
+      </c>
+      <c r="D25" s="9">
+        <f>SHIPMENT_BUILDER!E25</f>
+        <v/>
+      </c>
+      <c r="E25" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$25=1, SHIPMENT_BUILDER!$E$25, 0)</f>
+        <v/>
+      </c>
+      <c r="F25" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$25=2, SHIPMENT_BUILDER!$E$25, 0)</f>
+        <v/>
+      </c>
+      <c r="G25" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$25=3, SHIPMENT_BUILDER!$E$25, 0)</f>
+        <v/>
+      </c>
+      <c r="H25" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$25=4, SHIPMENT_BUILDER!$E$25, 0)</f>
+        <v/>
+      </c>
+      <c r="I25" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$25=5, SHIPMENT_BUILDER!$E$25, 0)</f>
+        <v/>
+      </c>
+      <c r="J25" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$25=6, SHIPMENT_BUILDER!$E$25, 0)</f>
+        <v/>
+      </c>
+      <c r="K25" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$25=7, SHIPMENT_BUILDER!$E$25, 0)</f>
+        <v/>
+      </c>
+      <c r="L25" s="28">
+        <f>IF(SHIPMENT_BUILDER!$H$25=8, SHIPMENT_BUILDER!$E$25, 0)</f>
         <v/>
       </c>
     </row>

--- a/CLO Dashboard/Logistics_Dashboard.xlsx
+++ b/CLO Dashboard/Logistics_Dashboard.xlsx
@@ -8,9 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="ROUTE_CONFIG" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="INVENTORY_TETRIS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="SHIPMENT_BUILDER" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="UPLOAD_READY_LOGISTICS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LOGISTICS_DATA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ROUTE_OPTIMIZER" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INVENTORY_TETRIS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SHIPMENT_BUILDER" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="UPLOAD_READY_LOGISTICS" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,10 +21,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="$#,##0"/>
+    <numFmt numFmtId="165" formatCode="$#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -53,14 +56,22 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00C00000"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="009C0006"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -117,6 +128,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00EEEEEE"/>
+        <bgColor rgb="00EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00E2EFDA"/>
         <bgColor rgb="00E2EFDA"/>
       </patternFill>
@@ -146,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -161,52 +178,85 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -226,8 +276,28 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="00FFCC00"/>
+          <bgColor rgb="00FFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="00C6EFCE"/>
           <bgColor rgb="00C6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="009C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFC7CE"/>
+          <bgColor rgb="00FFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1451,7 +1521,7 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>4800</v>
+        <v>3526</v>
       </c>
       <c r="C13" s="7" t="n">
         <v>0</v>
@@ -1467,7 +1537,7 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>2500</v>
+        <v>2643</v>
       </c>
       <c r="C14" s="7" t="n">
         <v>0</v>
@@ -1483,7 +1553,7 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>2000</v>
+        <v>4329</v>
       </c>
       <c r="C15" s="7" t="n">
         <v>0</v>
@@ -1530,6 +1600,401 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Route Cost Database (Generated from Case Parameters)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="C2" s="14" t="inlineStr">
+        <is>
+          <t>Mode</t>
+        </is>
+      </c>
+      <c r="D2" s="14" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="E2" s="14" t="inlineStr">
+        <is>
+          <t>LeadTime</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ROUTE OPTIMIZER &amp; MATRIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Cheapest Transport Mode Matrix ($ Cost)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>Center</t>
+        </is>
+      </c>
+      <c r="C4" s="16" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="D4" s="17" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="E4" s="18" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="F4" s="19" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="20" t="inlineStr">
+        <is>
+          <t>Center</t>
+        </is>
+      </c>
+      <c r="B5" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C5" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+      <c r="D5" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+      <c r="E5" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+      <c r="F5" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="23" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="B6" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+      <c r="C6" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+      <c r="E6" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+      <c r="F6" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="24" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="B7" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+      <c r="C7" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+      <c r="D7" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+      <c r="F7" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="25" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="B8" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+      <c r="C8" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+      <c r="D8" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+      <c r="E8" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="26" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B9" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+      <c r="C9" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+      <c r="D9" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+      <c r="E9" s="22" t="inlineStr">
+        <is>
+          <t>N/A
+($999999)</t>
+        </is>
+      </c>
+      <c r="F9" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>ROUTE CALCULATOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="27" t="inlineStr">
+        <is>
+          <t>From:</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>Center</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="27" t="inlineStr">
+        <is>
+          <t>To:</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="28" t="inlineStr">
+        <is>
+          <t>Mode</t>
+        </is>
+      </c>
+      <c r="B16" s="28" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="C16" s="28" t="inlineStr">
+        <is>
+          <t>Lead Time</t>
+        </is>
+      </c>
+      <c r="D16" s="28" t="inlineStr">
+        <is>
+          <t>Savings vs Air</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Train</t>
+        </is>
+      </c>
+      <c r="B17" s="29">
+        <f>SUMIFS(LOGISTICS_DATA!D:D, LOGISTICS_DATA!A:A, $B$13, LOGISTICS_DATA!B:B, $B$14, LOGISTICS_DATA!C:C, "Train")</f>
+        <v/>
+      </c>
+      <c r="C17" s="5">
+        <f>SUMIFS(LOGISTICS_DATA!E:E, LOGISTICS_DATA!A:A, $B$13, LOGISTICS_DATA!B:B, $B$14, LOGISTICS_DATA!C:C, "Train")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Truck</t>
+        </is>
+      </c>
+      <c r="B18" s="29">
+        <f>SUMIFS(LOGISTICS_DATA!D:D, LOGISTICS_DATA!A:A, $B$13, LOGISTICS_DATA!B:B, $B$14, LOGISTICS_DATA!C:C, "Truck")</f>
+        <v/>
+      </c>
+      <c r="C18" s="5">
+        <f>SUMIFS(LOGISTICS_DATA!E:E, LOGISTICS_DATA!A:A, $B$13, LOGISTICS_DATA!B:B, $B$14, LOGISTICS_DATA!C:C, "Truck")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Airplane</t>
+        </is>
+      </c>
+      <c r="B19" s="29">
+        <f>SUMIFS(LOGISTICS_DATA!D:D, LOGISTICS_DATA!A:A, $B$13, LOGISTICS_DATA!B:B, $B$14, LOGISTICS_DATA!C:C, "Airplane")</f>
+        <v/>
+      </c>
+      <c r="C19" s="5">
+        <f>SUMIFS(LOGISTICS_DATA!E:E, LOGISTICS_DATA!A:A, $B$13, LOGISTICS_DATA!B:B, $B$14, LOGISTICS_DATA!C:C, "Airplane")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1563,14 +2028,19 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Balance inventory using shipments. Watch for STOCKOUT (red) and OVERFLOW (purple) flags.</t>
+          <t>Balance inventory. Watch: 🔴STOCKOUT (red), 🟡WARNING &gt;90% (yellow), 🟣OVERFLOW (purple).</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="inlineStr">
-        <is>
-          <t>═══ CENTER ZONE (Capacity: 4,800) ═══</t>
+      <c r="A4" s="30" t="inlineStr">
+        <is>
+          <t>═══ CENTER ZONE (Capacity: 3,526) ═══</t>
+        </is>
+      </c>
+      <c r="I4" s="31" t="inlineStr">
+        <is>
+          <t>Last Period Rent: $41,423</t>
         </is>
       </c>
     </row>
@@ -1581,7 +2051,7 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>3410</v>
+        <v>1938</v>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
@@ -1589,7 +2059,7 @@
         </is>
       </c>
       <c r="E5" s="9" t="n">
-        <v>4800</v>
+        <v>3526</v>
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
@@ -1601,42 +2071,42 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="inlineStr">
+      <c r="A7" s="32" t="inlineStr">
         <is>
           <t>Fortnight</t>
         </is>
       </c>
-      <c r="B7" s="15" t="inlineStr">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="C7" s="15" t="inlineStr">
+      <c r="C7" s="32" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="D7" s="15" t="inlineStr">
+      <c r="D7" s="32" t="inlineStr">
         <is>
           <t>Outgoing</t>
         </is>
       </c>
-      <c r="E7" s="15" t="inlineStr">
+      <c r="E7" s="32" t="inlineStr">
         <is>
           <t>Incoming</t>
         </is>
       </c>
-      <c r="F7" s="15" t="inlineStr">
+      <c r="F7" s="32" t="inlineStr">
         <is>
           <t>Projected Inv</t>
         </is>
       </c>
-      <c r="G7" s="15" t="inlineStr">
+      <c r="G7" s="32" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H7" s="15" t="inlineStr">
+      <c r="H7" s="32" t="inlineStr">
         <is>
           <t>Flag</t>
         </is>
@@ -1669,7 +2139,7 @@
         <v/>
       </c>
       <c r="H8" s="5">
-        <f>IF(F8&lt;0,"STOCKOUT: SHIP HERE!",IF(F8&gt;G8,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F8&lt;0,"🔴 STOCKOUT!",IF(F8&gt;G8,"🟣 OVERFLOW!",IF(F8&gt;G8*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
     </row>
@@ -1700,7 +2170,7 @@
         <v/>
       </c>
       <c r="H9" s="5">
-        <f>IF(F9&lt;0,"STOCKOUT: SHIP HERE!",IF(F9&gt;G9,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F9&lt;0,"🔴 STOCKOUT!",IF(F9&gt;G9,"🟣 OVERFLOW!",IF(F9&gt;G9*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
     </row>
@@ -1731,7 +2201,7 @@
         <v/>
       </c>
       <c r="H10" s="5">
-        <f>IF(F10&lt;0,"STOCKOUT: SHIP HERE!",IF(F10&gt;G10,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F10&lt;0,"🔴 STOCKOUT!",IF(F10&gt;G10,"🟣 OVERFLOW!",IF(F10&gt;G10*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
     </row>
@@ -1762,7 +2232,7 @@
         <v/>
       </c>
       <c r="H11" s="5">
-        <f>IF(F11&lt;0,"STOCKOUT: SHIP HERE!",IF(F11&gt;G11,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F11&lt;0,"🔴 STOCKOUT!",IF(F11&gt;G11,"🟣 OVERFLOW!",IF(F11&gt;G11*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
     </row>
@@ -1793,7 +2263,7 @@
         <v/>
       </c>
       <c r="H12" s="5">
-        <f>IF(F12&lt;0,"STOCKOUT: SHIP HERE!",IF(F12&gt;G12,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F12&lt;0,"🔴 STOCKOUT!",IF(F12&gt;G12,"🟣 OVERFLOW!",IF(F12&gt;G12*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
     </row>
@@ -1824,7 +2294,7 @@
         <v/>
       </c>
       <c r="H13" s="5">
-        <f>IF(F13&lt;0,"STOCKOUT: SHIP HERE!",IF(F13&gt;G13,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F13&lt;0,"🔴 STOCKOUT!",IF(F13&gt;G13,"🟣 OVERFLOW!",IF(F13&gt;G13*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
     </row>
@@ -1855,7 +2325,7 @@
         <v/>
       </c>
       <c r="H14" s="5">
-        <f>IF(F14&lt;0,"STOCKOUT: SHIP HERE!",IF(F14&gt;G14,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F14&lt;0,"🔴 STOCKOUT!",IF(F14&gt;G14,"🟣 OVERFLOW!",IF(F14&gt;G14*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
     </row>
@@ -1886,14 +2356,19 @@
         <v/>
       </c>
       <c r="H15" s="5">
-        <f>IF(F15&lt;0,"STOCKOUT: SHIP HERE!",IF(F15&gt;G15,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F15&lt;0,"🔴 STOCKOUT!",IF(F15&gt;G15,"🟣 OVERFLOW!",IF(F15&gt;G15*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="inlineStr">
-        <is>
-          <t>═══ WEST ZONE (Capacity: 2,500) ═══</t>
+      <c r="A18" s="33" t="inlineStr">
+        <is>
+          <t>═══ WEST ZONE (Capacity: 2,643) ═══</t>
+        </is>
+      </c>
+      <c r="I18" s="31" t="inlineStr">
+        <is>
+          <t>Last Period Rent: $26,031</t>
         </is>
       </c>
     </row>
@@ -1904,7 +2379,7 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>1886</v>
+        <v>1080</v>
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
@@ -1912,7 +2387,7 @@
         </is>
       </c>
       <c r="E19" s="9" t="n">
-        <v>2500</v>
+        <v>2643</v>
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
@@ -1924,42 +2399,42 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="inlineStr">
+      <c r="A21" s="34" t="inlineStr">
         <is>
           <t>Fortnight</t>
         </is>
       </c>
-      <c r="B21" s="17" t="inlineStr">
+      <c r="B21" s="34" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="C21" s="17" t="inlineStr">
+      <c r="C21" s="34" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="D21" s="17" t="inlineStr">
+      <c r="D21" s="34" t="inlineStr">
         <is>
           <t>Outgoing</t>
         </is>
       </c>
-      <c r="E21" s="17" t="inlineStr">
+      <c r="E21" s="34" t="inlineStr">
         <is>
           <t>Incoming</t>
         </is>
       </c>
-      <c r="F21" s="17" t="inlineStr">
+      <c r="F21" s="34" t="inlineStr">
         <is>
           <t>Projected Inv</t>
         </is>
       </c>
-      <c r="G21" s="17" t="inlineStr">
+      <c r="G21" s="34" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H21" s="17" t="inlineStr">
+      <c r="H21" s="34" t="inlineStr">
         <is>
           <t>Flag</t>
         </is>
@@ -2002,7 +2477,7 @@
         <v/>
       </c>
       <c r="H22" s="5">
-        <f>IF(F22&lt;0,"STOCKOUT: SHIP HERE!",IF(F22&gt;G22,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F22&lt;0,"🔴 STOCKOUT!",IF(F22&gt;G22,"🟣 OVERFLOW!",IF(F22&gt;G22*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J22">
@@ -2041,7 +2516,7 @@
         <v/>
       </c>
       <c r="H23" s="5">
-        <f>IF(F23&lt;0,"STOCKOUT: SHIP HERE!",IF(F23&gt;G23,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F23&lt;0,"🔴 STOCKOUT!",IF(F23&gt;G23,"🟣 OVERFLOW!",IF(F23&gt;G23*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J23">
@@ -2080,7 +2555,7 @@
         <v/>
       </c>
       <c r="H24" s="5">
-        <f>IF(F24&lt;0,"STOCKOUT: SHIP HERE!",IF(F24&gt;G24,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F24&lt;0,"🔴 STOCKOUT!",IF(F24&gt;G24,"🟣 OVERFLOW!",IF(F24&gt;G24*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J24">
@@ -2119,7 +2594,7 @@
         <v/>
       </c>
       <c r="H25" s="5">
-        <f>IF(F25&lt;0,"STOCKOUT: SHIP HERE!",IF(F25&gt;G25,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F25&lt;0,"🔴 STOCKOUT!",IF(F25&gt;G25,"🟣 OVERFLOW!",IF(F25&gt;G25*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J25">
@@ -2158,7 +2633,7 @@
         <v/>
       </c>
       <c r="H26" s="5">
-        <f>IF(F26&lt;0,"STOCKOUT: SHIP HERE!",IF(F26&gt;G26,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F26&lt;0,"🔴 STOCKOUT!",IF(F26&gt;G26,"🟣 OVERFLOW!",IF(F26&gt;G26*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J26">
@@ -2197,7 +2672,7 @@
         <v/>
       </c>
       <c r="H27" s="5">
-        <f>IF(F27&lt;0,"STOCKOUT: SHIP HERE!",IF(F27&gt;G27,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F27&lt;0,"🔴 STOCKOUT!",IF(F27&gt;G27,"🟣 OVERFLOW!",IF(F27&gt;G27*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J27">
@@ -2236,7 +2711,7 @@
         <v/>
       </c>
       <c r="H28" s="5">
-        <f>IF(F28&lt;0,"STOCKOUT: SHIP HERE!",IF(F28&gt;G28,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F28&lt;0,"🔴 STOCKOUT!",IF(F28&gt;G28,"🟣 OVERFLOW!",IF(F28&gt;G28*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J28">
@@ -2275,7 +2750,7 @@
         <v/>
       </c>
       <c r="H29" s="5">
-        <f>IF(F29&lt;0,"STOCKOUT: SHIP HERE!",IF(F29&gt;G29,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F29&lt;0,"🔴 STOCKOUT!",IF(F29&gt;G29,"🟣 OVERFLOW!",IF(F29&gt;G29*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J29">
@@ -2288,9 +2763,14 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="18" t="inlineStr">
-        <is>
-          <t>═══ NORTH ZONE (Capacity: 2,000) ═══</t>
+      <c r="A32" s="35" t="inlineStr">
+        <is>
+          <t>═══ NORTH ZONE (Capacity: 4,329) ═══</t>
+        </is>
+      </c>
+      <c r="I32" s="31" t="inlineStr">
+        <is>
+          <t>Last Period Rent: $48,858</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2781,7 @@
         </is>
       </c>
       <c r="B33" s="9" t="n">
-        <v>1720</v>
+        <v>1569</v>
       </c>
       <c r="D33" s="5" t="inlineStr">
         <is>
@@ -2309,7 +2789,7 @@
         </is>
       </c>
       <c r="E33" s="9" t="n">
-        <v>2000</v>
+        <v>4329</v>
       </c>
       <c r="G33" s="5" t="inlineStr">
         <is>
@@ -2321,42 +2801,42 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="19" t="inlineStr">
+      <c r="A35" s="36" t="inlineStr">
         <is>
           <t>Fortnight</t>
         </is>
       </c>
-      <c r="B35" s="19" t="inlineStr">
+      <c r="B35" s="36" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="C35" s="19" t="inlineStr">
+      <c r="C35" s="36" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="D35" s="19" t="inlineStr">
+      <c r="D35" s="36" t="inlineStr">
         <is>
           <t>Outgoing</t>
         </is>
       </c>
-      <c r="E35" s="19" t="inlineStr">
+      <c r="E35" s="36" t="inlineStr">
         <is>
           <t>Incoming</t>
         </is>
       </c>
-      <c r="F35" s="19" t="inlineStr">
+      <c r="F35" s="36" t="inlineStr">
         <is>
           <t>Projected Inv</t>
         </is>
       </c>
-      <c r="G35" s="19" t="inlineStr">
+      <c r="G35" s="36" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H35" s="19" t="inlineStr">
+      <c r="H35" s="36" t="inlineStr">
         <is>
           <t>Flag</t>
         </is>
@@ -2399,7 +2879,7 @@
         <v/>
       </c>
       <c r="H36" s="5">
-        <f>IF(F36&lt;0,"STOCKOUT: SHIP HERE!",IF(F36&gt;G36,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F36&lt;0,"🔴 STOCKOUT!",IF(F36&gt;G36,"🟣 OVERFLOW!",IF(F36&gt;G36*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J36">
@@ -2438,7 +2918,7 @@
         <v/>
       </c>
       <c r="H37" s="5">
-        <f>IF(F37&lt;0,"STOCKOUT: SHIP HERE!",IF(F37&gt;G37,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F37&lt;0,"🔴 STOCKOUT!",IF(F37&gt;G37,"🟣 OVERFLOW!",IF(F37&gt;G37*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J37">
@@ -2477,7 +2957,7 @@
         <v/>
       </c>
       <c r="H38" s="5">
-        <f>IF(F38&lt;0,"STOCKOUT: SHIP HERE!",IF(F38&gt;G38,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F38&lt;0,"🔴 STOCKOUT!",IF(F38&gt;G38,"🟣 OVERFLOW!",IF(F38&gt;G38*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J38">
@@ -2516,7 +2996,7 @@
         <v/>
       </c>
       <c r="H39" s="5">
-        <f>IF(F39&lt;0,"STOCKOUT: SHIP HERE!",IF(F39&gt;G39,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F39&lt;0,"🔴 STOCKOUT!",IF(F39&gt;G39,"🟣 OVERFLOW!",IF(F39&gt;G39*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J39">
@@ -2555,7 +3035,7 @@
         <v/>
       </c>
       <c r="H40" s="5">
-        <f>IF(F40&lt;0,"STOCKOUT: SHIP HERE!",IF(F40&gt;G40,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F40&lt;0,"🔴 STOCKOUT!",IF(F40&gt;G40,"🟣 OVERFLOW!",IF(F40&gt;G40*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J40">
@@ -2594,7 +3074,7 @@
         <v/>
       </c>
       <c r="H41" s="5">
-        <f>IF(F41&lt;0,"STOCKOUT: SHIP HERE!",IF(F41&gt;G41,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F41&lt;0,"🔴 STOCKOUT!",IF(F41&gt;G41,"🟣 OVERFLOW!",IF(F41&gt;G41*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J41">
@@ -2633,7 +3113,7 @@
         <v/>
       </c>
       <c r="H42" s="5">
-        <f>IF(F42&lt;0,"STOCKOUT: SHIP HERE!",IF(F42&gt;G42,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F42&lt;0,"🔴 STOCKOUT!",IF(F42&gt;G42,"🟣 OVERFLOW!",IF(F42&gt;G42*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J42">
@@ -2672,7 +3152,7 @@
         <v/>
       </c>
       <c r="H43" s="5">
-        <f>IF(F43&lt;0,"STOCKOUT: SHIP HERE!",IF(F43&gt;G43,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F43&lt;0,"🔴 STOCKOUT!",IF(F43&gt;G43,"🟣 OVERFLOW!",IF(F43&gt;G43*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J43">
@@ -2685,9 +3165,14 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="20" t="inlineStr">
+      <c r="A46" s="37" t="inlineStr">
         <is>
           <t>═══ EAST ZONE (Capacity: 0) ═══</t>
+        </is>
+      </c>
+      <c r="I46" s="31" t="inlineStr">
+        <is>
+          <t>Last Period Rent: $16,137</t>
         </is>
       </c>
     </row>
@@ -2718,42 +3203,42 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="21" t="inlineStr">
+      <c r="A49" s="38" t="inlineStr">
         <is>
           <t>Fortnight</t>
         </is>
       </c>
-      <c r="B49" s="21" t="inlineStr">
+      <c r="B49" s="38" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="C49" s="21" t="inlineStr">
+      <c r="C49" s="38" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="D49" s="21" t="inlineStr">
+      <c r="D49" s="38" t="inlineStr">
         <is>
           <t>Outgoing</t>
         </is>
       </c>
-      <c r="E49" s="21" t="inlineStr">
+      <c r="E49" s="38" t="inlineStr">
         <is>
           <t>Incoming</t>
         </is>
       </c>
-      <c r="F49" s="21" t="inlineStr">
+      <c r="F49" s="38" t="inlineStr">
         <is>
           <t>Projected Inv</t>
         </is>
       </c>
-      <c r="G49" s="21" t="inlineStr">
+      <c r="G49" s="38" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H49" s="21" t="inlineStr">
+      <c r="H49" s="38" t="inlineStr">
         <is>
           <t>Flag</t>
         </is>
@@ -2796,7 +3281,7 @@
         <v/>
       </c>
       <c r="H50" s="5">
-        <f>IF(F50&lt;0,"STOCKOUT: SHIP HERE!",IF(F50&gt;G50,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F50&lt;0,"🔴 STOCKOUT!",IF(F50&gt;G50,"🟣 OVERFLOW!",IF(F50&gt;G50*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J50">
@@ -2835,7 +3320,7 @@
         <v/>
       </c>
       <c r="H51" s="5">
-        <f>IF(F51&lt;0,"STOCKOUT: SHIP HERE!",IF(F51&gt;G51,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F51&lt;0,"🔴 STOCKOUT!",IF(F51&gt;G51,"🟣 OVERFLOW!",IF(F51&gt;G51*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J51">
@@ -2874,7 +3359,7 @@
         <v/>
       </c>
       <c r="H52" s="5">
-        <f>IF(F52&lt;0,"STOCKOUT: SHIP HERE!",IF(F52&gt;G52,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F52&lt;0,"🔴 STOCKOUT!",IF(F52&gt;G52,"🟣 OVERFLOW!",IF(F52&gt;G52*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J52">
@@ -2913,7 +3398,7 @@
         <v/>
       </c>
       <c r="H53" s="5">
-        <f>IF(F53&lt;0,"STOCKOUT: SHIP HERE!",IF(F53&gt;G53,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F53&lt;0,"🔴 STOCKOUT!",IF(F53&gt;G53,"🟣 OVERFLOW!",IF(F53&gt;G53*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J53">
@@ -2952,7 +3437,7 @@
         <v/>
       </c>
       <c r="H54" s="5">
-        <f>IF(F54&lt;0,"STOCKOUT: SHIP HERE!",IF(F54&gt;G54,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F54&lt;0,"🔴 STOCKOUT!",IF(F54&gt;G54,"🟣 OVERFLOW!",IF(F54&gt;G54*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J54">
@@ -2991,7 +3476,7 @@
         <v/>
       </c>
       <c r="H55" s="5">
-        <f>IF(F55&lt;0,"STOCKOUT: SHIP HERE!",IF(F55&gt;G55,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F55&lt;0,"🔴 STOCKOUT!",IF(F55&gt;G55,"🟣 OVERFLOW!",IF(F55&gt;G55*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J55">
@@ -3030,7 +3515,7 @@
         <v/>
       </c>
       <c r="H56" s="5">
-        <f>IF(F56&lt;0,"STOCKOUT: SHIP HERE!",IF(F56&gt;G56,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F56&lt;0,"🔴 STOCKOUT!",IF(F56&gt;G56,"🟣 OVERFLOW!",IF(F56&gt;G56*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J56">
@@ -3069,7 +3554,7 @@
         <v/>
       </c>
       <c r="H57" s="5">
-        <f>IF(F57&lt;0,"STOCKOUT: SHIP HERE!",IF(F57&gt;G57,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F57&lt;0,"🔴 STOCKOUT!",IF(F57&gt;G57,"🟣 OVERFLOW!",IF(F57&gt;G57*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J57">
@@ -3082,9 +3567,14 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="22" t="inlineStr">
+      <c r="A60" s="39" t="inlineStr">
         <is>
           <t>═══ SOUTH ZONE (Capacity: 0) ═══</t>
+        </is>
+      </c>
+      <c r="I60" s="31" t="inlineStr">
+        <is>
+          <t>Last Period Rent: $43,604</t>
         </is>
       </c>
     </row>
@@ -3115,42 +3605,42 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="23" t="inlineStr">
+      <c r="A63" s="40" t="inlineStr">
         <is>
           <t>Fortnight</t>
         </is>
       </c>
-      <c r="B63" s="23" t="inlineStr">
+      <c r="B63" s="40" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="C63" s="23" t="inlineStr">
+      <c r="C63" s="40" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="D63" s="23" t="inlineStr">
+      <c r="D63" s="40" t="inlineStr">
         <is>
           <t>Outgoing</t>
         </is>
       </c>
-      <c r="E63" s="23" t="inlineStr">
+      <c r="E63" s="40" t="inlineStr">
         <is>
           <t>Incoming</t>
         </is>
       </c>
-      <c r="F63" s="23" t="inlineStr">
+      <c r="F63" s="40" t="inlineStr">
         <is>
           <t>Projected Inv</t>
         </is>
       </c>
-      <c r="G63" s="23" t="inlineStr">
+      <c r="G63" s="40" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H63" s="23" t="inlineStr">
+      <c r="H63" s="40" t="inlineStr">
         <is>
           <t>Flag</t>
         </is>
@@ -3193,7 +3683,7 @@
         <v/>
       </c>
       <c r="H64" s="5">
-        <f>IF(F64&lt;0,"STOCKOUT: SHIP HERE!",IF(F64&gt;G64,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F64&lt;0,"🔴 STOCKOUT!",IF(F64&gt;G64,"🟣 OVERFLOW!",IF(F64&gt;G64*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J64">
@@ -3232,7 +3722,7 @@
         <v/>
       </c>
       <c r="H65" s="5">
-        <f>IF(F65&lt;0,"STOCKOUT: SHIP HERE!",IF(F65&gt;G65,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F65&lt;0,"🔴 STOCKOUT!",IF(F65&gt;G65,"🟣 OVERFLOW!",IF(F65&gt;G65*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J65">
@@ -3271,7 +3761,7 @@
         <v/>
       </c>
       <c r="H66" s="5">
-        <f>IF(F66&lt;0,"STOCKOUT: SHIP HERE!",IF(F66&gt;G66,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F66&lt;0,"🔴 STOCKOUT!",IF(F66&gt;G66,"🟣 OVERFLOW!",IF(F66&gt;G66*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J66">
@@ -3310,7 +3800,7 @@
         <v/>
       </c>
       <c r="H67" s="5">
-        <f>IF(F67&lt;0,"STOCKOUT: SHIP HERE!",IF(F67&gt;G67,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F67&lt;0,"🔴 STOCKOUT!",IF(F67&gt;G67,"🟣 OVERFLOW!",IF(F67&gt;G67*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J67">
@@ -3349,7 +3839,7 @@
         <v/>
       </c>
       <c r="H68" s="5">
-        <f>IF(F68&lt;0,"STOCKOUT: SHIP HERE!",IF(F68&gt;G68,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F68&lt;0,"🔴 STOCKOUT!",IF(F68&gt;G68,"🟣 OVERFLOW!",IF(F68&gt;G68*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J68">
@@ -3388,7 +3878,7 @@
         <v/>
       </c>
       <c r="H69" s="5">
-        <f>IF(F69&lt;0,"STOCKOUT: SHIP HERE!",IF(F69&gt;G69,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F69&lt;0,"🔴 STOCKOUT!",IF(F69&gt;G69,"🟣 OVERFLOW!",IF(F69&gt;G69*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J69">
@@ -3427,7 +3917,7 @@
         <v/>
       </c>
       <c r="H70" s="5">
-        <f>IF(F70&lt;0,"STOCKOUT: SHIP HERE!",IF(F70&gt;G70,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F70&lt;0,"🔴 STOCKOUT!",IF(F70&gt;G70,"🟣 OVERFLOW!",IF(F70&gt;G70*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J70">
@@ -3466,7 +3956,7 @@
         <v/>
       </c>
       <c r="H71" s="5">
-        <f>IF(F71&lt;0,"STOCKOUT: SHIP HERE!",IF(F71&gt;G71,"OVERFLOW: RENT!","OK"))</f>
+        <f>IF(F71&lt;0,"🔴 STOCKOUT!",IF(F71&gt;G71,"🟣 OVERFLOW!",IF(F71&gt;G71*0.9,"🟡 WARNING: &gt;90%","✓ OK")))</f>
         <v/>
       </c>
       <c r="J71">
@@ -3494,51 +3984,66 @@
       <formula>F8&gt;G8</formula>
     </cfRule>
     <cfRule type="expression" priority="3" dxfId="2">
-      <formula>AND(F8&gt;=0, F8&lt;=G8)</formula>
+      <formula>AND(F8&gt;G8*0.9, F8&lt;=G8)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4" dxfId="3">
+      <formula>AND(F8&gt;=0, F8&lt;=G8*0.9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F29">
-    <cfRule type="expression" priority="4" dxfId="0">
+    <cfRule type="expression" priority="5" dxfId="0">
       <formula>F22&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" dxfId="1">
+    <cfRule type="expression" priority="6" dxfId="1">
       <formula>F22&gt;G22</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" dxfId="2">
-      <formula>AND(F22&gt;=0, F22&lt;=G22)</formula>
+    <cfRule type="expression" priority="7" dxfId="2">
+      <formula>AND(F22&gt;G22*0.9, F22&lt;=G22)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="8" dxfId="3">
+      <formula>AND(F22&gt;=0, F22&lt;=G22*0.9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:F43">
-    <cfRule type="expression" priority="7" dxfId="0">
+    <cfRule type="expression" priority="9" dxfId="0">
       <formula>F36&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" priority="8" dxfId="1">
+    <cfRule type="expression" priority="10" dxfId="1">
       <formula>F36&gt;G36</formula>
     </cfRule>
-    <cfRule type="expression" priority="9" dxfId="2">
-      <formula>AND(F36&gt;=0, F36&lt;=G36)</formula>
+    <cfRule type="expression" priority="11" dxfId="2">
+      <formula>AND(F36&gt;G36*0.9, F36&lt;=G36)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="12" dxfId="3">
+      <formula>AND(F36&gt;=0, F36&lt;=G36*0.9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:F57">
-    <cfRule type="expression" priority="10" dxfId="0">
+    <cfRule type="expression" priority="13" dxfId="0">
       <formula>F50&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" priority="11" dxfId="1">
+    <cfRule type="expression" priority="14" dxfId="1">
       <formula>F50&gt;G50</formula>
     </cfRule>
-    <cfRule type="expression" priority="12" dxfId="2">
-      <formula>AND(F50&gt;=0, F50&lt;=G50)</formula>
+    <cfRule type="expression" priority="15" dxfId="2">
+      <formula>AND(F50&gt;G50*0.9, F50&lt;=G50)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="16" dxfId="3">
+      <formula>AND(F50&gt;=0, F50&lt;=G50*0.9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64:F71">
-    <cfRule type="expression" priority="13" dxfId="0">
+    <cfRule type="expression" priority="17" dxfId="0">
       <formula>F64&lt;0</formula>
     </cfRule>
-    <cfRule type="expression" priority="14" dxfId="1">
+    <cfRule type="expression" priority="18" dxfId="1">
       <formula>F64&gt;G64</formula>
     </cfRule>
-    <cfRule type="expression" priority="15" dxfId="2">
-      <formula>AND(F64&gt;=0, F64&lt;=G64)</formula>
+    <cfRule type="expression" priority="19" dxfId="2">
+      <formula>AND(F64&gt;G64*0.9, F64&lt;=G64)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="20" dxfId="3">
+      <formula>AND(F64&gt;=0, F64&lt;=G64*0.9)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3546,13 +4051,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3570,6 +4075,8 @@
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3592,6 +4099,11 @@
           <t>SHIPMENT LOG</t>
         </is>
       </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>HISTORICAL COST BENCHMARKS</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -3642,6 +4154,16 @@
       <c r="J5" s="4" t="inlineStr">
         <is>
           <t>Arrive FN</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>Route</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>Benchmark $/Unit</t>
         </is>
       </c>
     </row>
@@ -3655,22 +4177,30 @@
       <c r="C6" s="6" t="n"/>
       <c r="D6" s="6" t="n"/>
       <c r="E6" s="6" t="n"/>
-      <c r="F6" s="24">
+      <c r="F6" s="41">
         <f>IF(ISBLANK(D6), 0, VLOOKUP(D6, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="41">
         <f>IF(ISBLANK(D6), 0, E6*F6)</f>
         <v/>
       </c>
-      <c r="H6" s="25" t="n"/>
-      <c r="I6" s="26">
+      <c r="H6" s="42" t="n"/>
+      <c r="I6" s="43">
         <f>IF(ISBLANK(D6), 0, VLOOKUP(D6, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="44">
         <f>IF(ISBLANK(D6), 0, H6+I6)</f>
         <v/>
+      </c>
+      <c r="M6" s="9" t="inlineStr">
+        <is>
+          <t>Train (Center - West)</t>
+        </is>
+      </c>
+      <c r="N6" s="45" t="n">
+        <v>11.19</v>
       </c>
     </row>
     <row r="7">
@@ -3683,22 +4213,30 @@
       <c r="C7" s="6" t="n"/>
       <c r="D7" s="6" t="n"/>
       <c r="E7" s="6" t="n"/>
-      <c r="F7" s="24">
+      <c r="F7" s="41">
         <f>IF(ISBLANK(D7), 0, VLOOKUP(D7, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="41">
         <f>IF(ISBLANK(D7), 0, E7*F7)</f>
         <v/>
       </c>
-      <c r="H7" s="25" t="n"/>
-      <c r="I7" s="26">
+      <c r="H7" s="42" t="n"/>
+      <c r="I7" s="43">
         <f>IF(ISBLANK(D7), 0, VLOOKUP(D7, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="44">
         <f>IF(ISBLANK(D7), 0, H7+I7)</f>
         <v/>
+      </c>
+      <c r="M7" s="9" t="inlineStr">
+        <is>
+          <t>Train (Center - North)</t>
+        </is>
+      </c>
+      <c r="N7" s="45" t="n">
+        <v>13.08894736842105</v>
       </c>
     </row>
     <row r="8">
@@ -3711,20 +4249,20 @@
       <c r="C8" s="6" t="n"/>
       <c r="D8" s="6" t="n"/>
       <c r="E8" s="6" t="n"/>
-      <c r="F8" s="24">
+      <c r="F8" s="41">
         <f>IF(ISBLANK(D8), 0, VLOOKUP(D8, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="41">
         <f>IF(ISBLANK(D8), 0, E8*F8)</f>
         <v/>
       </c>
-      <c r="H8" s="25" t="n"/>
-      <c r="I8" s="26">
+      <c r="H8" s="42" t="n"/>
+      <c r="I8" s="43">
         <f>IF(ISBLANK(D8), 0, VLOOKUP(D8, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="44">
         <f>IF(ISBLANK(D8), 0, H8+I8)</f>
         <v/>
       </c>
@@ -3739,20 +4277,20 @@
       <c r="C9" s="6" t="n"/>
       <c r="D9" s="6" t="n"/>
       <c r="E9" s="6" t="n"/>
-      <c r="F9" s="24">
+      <c r="F9" s="41">
         <f>IF(ISBLANK(D9), 0, VLOOKUP(D9, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="41">
         <f>IF(ISBLANK(D9), 0, E9*F9)</f>
         <v/>
       </c>
-      <c r="H9" s="25" t="n"/>
-      <c r="I9" s="26">
+      <c r="H9" s="42" t="n"/>
+      <c r="I9" s="43">
         <f>IF(ISBLANK(D9), 0, VLOOKUP(D9, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="44">
         <f>IF(ISBLANK(D9), 0, H9+I9)</f>
         <v/>
       </c>
@@ -3767,20 +4305,20 @@
       <c r="C10" s="6" t="n"/>
       <c r="D10" s="6" t="n"/>
       <c r="E10" s="6" t="n"/>
-      <c r="F10" s="24">
+      <c r="F10" s="41">
         <f>IF(ISBLANK(D10), 0, VLOOKUP(D10, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="41">
         <f>IF(ISBLANK(D10), 0, E10*F10)</f>
         <v/>
       </c>
-      <c r="H10" s="25" t="n"/>
-      <c r="I10" s="26">
+      <c r="H10" s="42" t="n"/>
+      <c r="I10" s="43">
         <f>IF(ISBLANK(D10), 0, VLOOKUP(D10, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="44">
         <f>IF(ISBLANK(D10), 0, H10+I10)</f>
         <v/>
       </c>
@@ -3795,20 +4333,20 @@
       <c r="C11" s="6" t="n"/>
       <c r="D11" s="6" t="n"/>
       <c r="E11" s="6" t="n"/>
-      <c r="F11" s="24">
+      <c r="F11" s="41">
         <f>IF(ISBLANK(D11), 0, VLOOKUP(D11, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="41">
         <f>IF(ISBLANK(D11), 0, E11*F11)</f>
         <v/>
       </c>
-      <c r="H11" s="25" t="n"/>
-      <c r="I11" s="26">
+      <c r="H11" s="42" t="n"/>
+      <c r="I11" s="43">
         <f>IF(ISBLANK(D11), 0, VLOOKUP(D11, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="44">
         <f>IF(ISBLANK(D11), 0, H11+I11)</f>
         <v/>
       </c>
@@ -3823,20 +4361,20 @@
       <c r="C12" s="6" t="n"/>
       <c r="D12" s="6" t="n"/>
       <c r="E12" s="6" t="n"/>
-      <c r="F12" s="24">
+      <c r="F12" s="41">
         <f>IF(ISBLANK(D12), 0, VLOOKUP(D12, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="41">
         <f>IF(ISBLANK(D12), 0, E12*F12)</f>
         <v/>
       </c>
-      <c r="H12" s="25" t="n"/>
-      <c r="I12" s="26">
+      <c r="H12" s="42" t="n"/>
+      <c r="I12" s="43">
         <f>IF(ISBLANK(D12), 0, VLOOKUP(D12, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="44">
         <f>IF(ISBLANK(D12), 0, H12+I12)</f>
         <v/>
       </c>
@@ -3851,20 +4389,20 @@
       <c r="C13" s="6" t="n"/>
       <c r="D13" s="6" t="n"/>
       <c r="E13" s="6" t="n"/>
-      <c r="F13" s="24">
+      <c r="F13" s="41">
         <f>IF(ISBLANK(D13), 0, VLOOKUP(D13, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="41">
         <f>IF(ISBLANK(D13), 0, E13*F13)</f>
         <v/>
       </c>
-      <c r="H13" s="25" t="n"/>
-      <c r="I13" s="26">
+      <c r="H13" s="42" t="n"/>
+      <c r="I13" s="43">
         <f>IF(ISBLANK(D13), 0, VLOOKUP(D13, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="44">
         <f>IF(ISBLANK(D13), 0, H13+I13)</f>
         <v/>
       </c>
@@ -3879,20 +4417,20 @@
       <c r="C14" s="6" t="n"/>
       <c r="D14" s="6" t="n"/>
       <c r="E14" s="6" t="n"/>
-      <c r="F14" s="24">
+      <c r="F14" s="41">
         <f>IF(ISBLANK(D14), 0, VLOOKUP(D14, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="41">
         <f>IF(ISBLANK(D14), 0, E14*F14)</f>
         <v/>
       </c>
-      <c r="H14" s="25" t="n"/>
-      <c r="I14" s="26">
+      <c r="H14" s="42" t="n"/>
+      <c r="I14" s="43">
         <f>IF(ISBLANK(D14), 0, VLOOKUP(D14, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="44">
         <f>IF(ISBLANK(D14), 0, H14+I14)</f>
         <v/>
       </c>
@@ -3907,20 +4445,20 @@
       <c r="C15" s="6" t="n"/>
       <c r="D15" s="6" t="n"/>
       <c r="E15" s="6" t="n"/>
-      <c r="F15" s="24">
+      <c r="F15" s="41">
         <f>IF(ISBLANK(D15), 0, VLOOKUP(D15, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="41">
         <f>IF(ISBLANK(D15), 0, E15*F15)</f>
         <v/>
       </c>
-      <c r="H15" s="25" t="n"/>
-      <c r="I15" s="26">
+      <c r="H15" s="42" t="n"/>
+      <c r="I15" s="43">
         <f>IF(ISBLANK(D15), 0, VLOOKUP(D15, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="44">
         <f>IF(ISBLANK(D15), 0, H15+I15)</f>
         <v/>
       </c>
@@ -3935,20 +4473,20 @@
       <c r="C16" s="6" t="n"/>
       <c r="D16" s="6" t="n"/>
       <c r="E16" s="6" t="n"/>
-      <c r="F16" s="24">
+      <c r="F16" s="41">
         <f>IF(ISBLANK(D16), 0, VLOOKUP(D16, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="41">
         <f>IF(ISBLANK(D16), 0, E16*F16)</f>
         <v/>
       </c>
-      <c r="H16" s="25" t="n"/>
-      <c r="I16" s="26">
+      <c r="H16" s="42" t="n"/>
+      <c r="I16" s="43">
         <f>IF(ISBLANK(D16), 0, VLOOKUP(D16, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="44">
         <f>IF(ISBLANK(D16), 0, H16+I16)</f>
         <v/>
       </c>
@@ -3963,20 +4501,20 @@
       <c r="C17" s="6" t="n"/>
       <c r="D17" s="6" t="n"/>
       <c r="E17" s="6" t="n"/>
-      <c r="F17" s="24">
+      <c r="F17" s="41">
         <f>IF(ISBLANK(D17), 0, VLOOKUP(D17, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="41">
         <f>IF(ISBLANK(D17), 0, E17*F17)</f>
         <v/>
       </c>
-      <c r="H17" s="25" t="n"/>
-      <c r="I17" s="26">
+      <c r="H17" s="42" t="n"/>
+      <c r="I17" s="43">
         <f>IF(ISBLANK(D17), 0, VLOOKUP(D17, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="44">
         <f>IF(ISBLANK(D17), 0, H17+I17)</f>
         <v/>
       </c>
@@ -3991,20 +4529,20 @@
       <c r="C18" s="6" t="n"/>
       <c r="D18" s="6" t="n"/>
       <c r="E18" s="6" t="n"/>
-      <c r="F18" s="24">
+      <c r="F18" s="41">
         <f>IF(ISBLANK(D18), 0, VLOOKUP(D18, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="41">
         <f>IF(ISBLANK(D18), 0, E18*F18)</f>
         <v/>
       </c>
-      <c r="H18" s="25" t="n"/>
-      <c r="I18" s="26">
+      <c r="H18" s="42" t="n"/>
+      <c r="I18" s="43">
         <f>IF(ISBLANK(D18), 0, VLOOKUP(D18, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="44">
         <f>IF(ISBLANK(D18), 0, H18+I18)</f>
         <v/>
       </c>
@@ -4019,20 +4557,20 @@
       <c r="C19" s="6" t="n"/>
       <c r="D19" s="6" t="n"/>
       <c r="E19" s="6" t="n"/>
-      <c r="F19" s="24">
+      <c r="F19" s="41">
         <f>IF(ISBLANK(D19), 0, VLOOKUP(D19, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="41">
         <f>IF(ISBLANK(D19), 0, E19*F19)</f>
         <v/>
       </c>
-      <c r="H19" s="25" t="n"/>
-      <c r="I19" s="26">
+      <c r="H19" s="42" t="n"/>
+      <c r="I19" s="43">
         <f>IF(ISBLANK(D19), 0, VLOOKUP(D19, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="44">
         <f>IF(ISBLANK(D19), 0, H19+I19)</f>
         <v/>
       </c>
@@ -4047,20 +4585,20 @@
       <c r="C20" s="6" t="n"/>
       <c r="D20" s="6" t="n"/>
       <c r="E20" s="6" t="n"/>
-      <c r="F20" s="24">
+      <c r="F20" s="41">
         <f>IF(ISBLANK(D20), 0, VLOOKUP(D20, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="41">
         <f>IF(ISBLANK(D20), 0, E20*F20)</f>
         <v/>
       </c>
-      <c r="H20" s="25" t="n"/>
-      <c r="I20" s="26">
+      <c r="H20" s="42" t="n"/>
+      <c r="I20" s="43">
         <f>IF(ISBLANK(D20), 0, VLOOKUP(D20, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="44">
         <f>IF(ISBLANK(D20), 0, H20+I20)</f>
         <v/>
       </c>
@@ -4075,20 +4613,20 @@
       <c r="C21" s="6" t="n"/>
       <c r="D21" s="6" t="n"/>
       <c r="E21" s="6" t="n"/>
-      <c r="F21" s="24">
+      <c r="F21" s="41">
         <f>IF(ISBLANK(D21), 0, VLOOKUP(D21, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="41">
         <f>IF(ISBLANK(D21), 0, E21*F21)</f>
         <v/>
       </c>
-      <c r="H21" s="25" t="n"/>
-      <c r="I21" s="26">
+      <c r="H21" s="42" t="n"/>
+      <c r="I21" s="43">
         <f>IF(ISBLANK(D21), 0, VLOOKUP(D21, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="44">
         <f>IF(ISBLANK(D21), 0, H21+I21)</f>
         <v/>
       </c>
@@ -4103,20 +4641,20 @@
       <c r="C22" s="6" t="n"/>
       <c r="D22" s="6" t="n"/>
       <c r="E22" s="6" t="n"/>
-      <c r="F22" s="24">
+      <c r="F22" s="41">
         <f>IF(ISBLANK(D22), 0, VLOOKUP(D22, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="41">
         <f>IF(ISBLANK(D22), 0, E22*F22)</f>
         <v/>
       </c>
-      <c r="H22" s="25" t="n"/>
-      <c r="I22" s="26">
+      <c r="H22" s="42" t="n"/>
+      <c r="I22" s="43">
         <f>IF(ISBLANK(D22), 0, VLOOKUP(D22, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="44">
         <f>IF(ISBLANK(D22), 0, H22+I22)</f>
         <v/>
       </c>
@@ -4131,20 +4669,20 @@
       <c r="C23" s="6" t="n"/>
       <c r="D23" s="6" t="n"/>
       <c r="E23" s="6" t="n"/>
-      <c r="F23" s="24">
+      <c r="F23" s="41">
         <f>IF(ISBLANK(D23), 0, VLOOKUP(D23, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="41">
         <f>IF(ISBLANK(D23), 0, E23*F23)</f>
         <v/>
       </c>
-      <c r="H23" s="25" t="n"/>
-      <c r="I23" s="26">
+      <c r="H23" s="42" t="n"/>
+      <c r="I23" s="43">
         <f>IF(ISBLANK(D23), 0, VLOOKUP(D23, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="44">
         <f>IF(ISBLANK(D23), 0, H23+I23)</f>
         <v/>
       </c>
@@ -4159,20 +4697,20 @@
       <c r="C24" s="6" t="n"/>
       <c r="D24" s="6" t="n"/>
       <c r="E24" s="6" t="n"/>
-      <c r="F24" s="24">
+      <c r="F24" s="41">
         <f>IF(ISBLANK(D24), 0, VLOOKUP(D24, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="41">
         <f>IF(ISBLANK(D24), 0, E24*F24)</f>
         <v/>
       </c>
-      <c r="H24" s="25" t="n"/>
-      <c r="I24" s="26">
+      <c r="H24" s="42" t="n"/>
+      <c r="I24" s="43">
         <f>IF(ISBLANK(D24), 0, VLOOKUP(D24, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="44">
         <f>IF(ISBLANK(D24), 0, H24+I24)</f>
         <v/>
       </c>
@@ -4187,30 +4725,45 @@
       <c r="C25" s="6" t="n"/>
       <c r="D25" s="6" t="n"/>
       <c r="E25" s="6" t="n"/>
-      <c r="F25" s="24">
+      <c r="F25" s="41">
         <f>IF(ISBLANK(D25), 0, VLOOKUP(D25, ROUTE_CONFIG!$A$6:$C$8, 3, FALSE))</f>
         <v/>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="41">
         <f>IF(ISBLANK(D25), 0, E25*F25)</f>
         <v/>
       </c>
-      <c r="H25" s="25" t="n"/>
-      <c r="I25" s="26">
+      <c r="H25" s="42" t="n"/>
+      <c r="I25" s="43">
         <f>IF(ISBLANK(D25), 0, VLOOKUP(D25, ROUTE_CONFIG!$A$6:$C$8, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="44">
         <f>IF(ISBLANK(D25), 0, H25+I25)</f>
         <v/>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="46" t="inlineStr">
+        <is>
+          <t>⚠️ Red cells = Cost &gt;20% above avg benchmark ($12.14 avg)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F6:F25">
+    <cfRule type="expression" priority="1" dxfId="4">
+      <formula>F6&gt;14.56736842105263</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4325,35 +4878,35 @@
         <f>SHIPMENT_BUILDER!E6</f>
         <v/>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$6=1, SHIPMENT_BUILDER!$E$6, 0)</f>
         <v/>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$6=2, SHIPMENT_BUILDER!$E$6, 0)</f>
         <v/>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$6=3, SHIPMENT_BUILDER!$E$6, 0)</f>
         <v/>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$6=4, SHIPMENT_BUILDER!$E$6, 0)</f>
         <v/>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$6=5, SHIPMENT_BUILDER!$E$6, 0)</f>
         <v/>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$6=6, SHIPMENT_BUILDER!$E$6, 0)</f>
         <v/>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$6=7, SHIPMENT_BUILDER!$E$6, 0)</f>
         <v/>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$6=8, SHIPMENT_BUILDER!$E$6, 0)</f>
         <v/>
       </c>
@@ -4376,35 +4929,35 @@
         <f>SHIPMENT_BUILDER!E7</f>
         <v/>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$7=1, SHIPMENT_BUILDER!$E$7, 0)</f>
         <v/>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$7=2, SHIPMENT_BUILDER!$E$7, 0)</f>
         <v/>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$7=3, SHIPMENT_BUILDER!$E$7, 0)</f>
         <v/>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$7=4, SHIPMENT_BUILDER!$E$7, 0)</f>
         <v/>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$7=5, SHIPMENT_BUILDER!$E$7, 0)</f>
         <v/>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$7=6, SHIPMENT_BUILDER!$E$7, 0)</f>
         <v/>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$7=7, SHIPMENT_BUILDER!$E$7, 0)</f>
         <v/>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$7=8, SHIPMENT_BUILDER!$E$7, 0)</f>
         <v/>
       </c>
@@ -4427,35 +4980,35 @@
         <f>SHIPMENT_BUILDER!E8</f>
         <v/>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$8=1, SHIPMENT_BUILDER!$E$8, 0)</f>
         <v/>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$8=2, SHIPMENT_BUILDER!$E$8, 0)</f>
         <v/>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$8=3, SHIPMENT_BUILDER!$E$8, 0)</f>
         <v/>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$8=4, SHIPMENT_BUILDER!$E$8, 0)</f>
         <v/>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$8=5, SHIPMENT_BUILDER!$E$8, 0)</f>
         <v/>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$8=6, SHIPMENT_BUILDER!$E$8, 0)</f>
         <v/>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$8=7, SHIPMENT_BUILDER!$E$8, 0)</f>
         <v/>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$8=8, SHIPMENT_BUILDER!$E$8, 0)</f>
         <v/>
       </c>
@@ -4478,35 +5031,35 @@
         <f>SHIPMENT_BUILDER!E9</f>
         <v/>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$9=1, SHIPMENT_BUILDER!$E$9, 0)</f>
         <v/>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$9=2, SHIPMENT_BUILDER!$E$9, 0)</f>
         <v/>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$9=3, SHIPMENT_BUILDER!$E$9, 0)</f>
         <v/>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$9=4, SHIPMENT_BUILDER!$E$9, 0)</f>
         <v/>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$9=5, SHIPMENT_BUILDER!$E$9, 0)</f>
         <v/>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$9=6, SHIPMENT_BUILDER!$E$9, 0)</f>
         <v/>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$9=7, SHIPMENT_BUILDER!$E$9, 0)</f>
         <v/>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$9=8, SHIPMENT_BUILDER!$E$9, 0)</f>
         <v/>
       </c>
@@ -4529,35 +5082,35 @@
         <f>SHIPMENT_BUILDER!E10</f>
         <v/>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$10=1, SHIPMENT_BUILDER!$E$10, 0)</f>
         <v/>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$10=2, SHIPMENT_BUILDER!$E$10, 0)</f>
         <v/>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$10=3, SHIPMENT_BUILDER!$E$10, 0)</f>
         <v/>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$10=4, SHIPMENT_BUILDER!$E$10, 0)</f>
         <v/>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$10=5, SHIPMENT_BUILDER!$E$10, 0)</f>
         <v/>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$10=6, SHIPMENT_BUILDER!$E$10, 0)</f>
         <v/>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$10=7, SHIPMENT_BUILDER!$E$10, 0)</f>
         <v/>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$10=8, SHIPMENT_BUILDER!$E$10, 0)</f>
         <v/>
       </c>
@@ -4580,35 +5133,35 @@
         <f>SHIPMENT_BUILDER!E11</f>
         <v/>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$11=1, SHIPMENT_BUILDER!$E$11, 0)</f>
         <v/>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$11=2, SHIPMENT_BUILDER!$E$11, 0)</f>
         <v/>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$11=3, SHIPMENT_BUILDER!$E$11, 0)</f>
         <v/>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$11=4, SHIPMENT_BUILDER!$E$11, 0)</f>
         <v/>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$11=5, SHIPMENT_BUILDER!$E$11, 0)</f>
         <v/>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$11=6, SHIPMENT_BUILDER!$E$11, 0)</f>
         <v/>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$11=7, SHIPMENT_BUILDER!$E$11, 0)</f>
         <v/>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$11=8, SHIPMENT_BUILDER!$E$11, 0)</f>
         <v/>
       </c>
@@ -4631,35 +5184,35 @@
         <f>SHIPMENT_BUILDER!E12</f>
         <v/>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$12=1, SHIPMENT_BUILDER!$E$12, 0)</f>
         <v/>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$12=2, SHIPMENT_BUILDER!$E$12, 0)</f>
         <v/>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$12=3, SHIPMENT_BUILDER!$E$12, 0)</f>
         <v/>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$12=4, SHIPMENT_BUILDER!$E$12, 0)</f>
         <v/>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$12=5, SHIPMENT_BUILDER!$E$12, 0)</f>
         <v/>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$12=6, SHIPMENT_BUILDER!$E$12, 0)</f>
         <v/>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$12=7, SHIPMENT_BUILDER!$E$12, 0)</f>
         <v/>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$12=8, SHIPMENT_BUILDER!$E$12, 0)</f>
         <v/>
       </c>
@@ -4682,35 +5235,35 @@
         <f>SHIPMENT_BUILDER!E13</f>
         <v/>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$13=1, SHIPMENT_BUILDER!$E$13, 0)</f>
         <v/>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$13=2, SHIPMENT_BUILDER!$E$13, 0)</f>
         <v/>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$13=3, SHIPMENT_BUILDER!$E$13, 0)</f>
         <v/>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$13=4, SHIPMENT_BUILDER!$E$13, 0)</f>
         <v/>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$13=5, SHIPMENT_BUILDER!$E$13, 0)</f>
         <v/>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$13=6, SHIPMENT_BUILDER!$E$13, 0)</f>
         <v/>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$13=7, SHIPMENT_BUILDER!$E$13, 0)</f>
         <v/>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$13=8, SHIPMENT_BUILDER!$E$13, 0)</f>
         <v/>
       </c>
@@ -4733,35 +5286,35 @@
         <f>SHIPMENT_BUILDER!E14</f>
         <v/>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$14=1, SHIPMENT_BUILDER!$E$14, 0)</f>
         <v/>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$14=2, SHIPMENT_BUILDER!$E$14, 0)</f>
         <v/>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$14=3, SHIPMENT_BUILDER!$E$14, 0)</f>
         <v/>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$14=4, SHIPMENT_BUILDER!$E$14, 0)</f>
         <v/>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$14=5, SHIPMENT_BUILDER!$E$14, 0)</f>
         <v/>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$14=6, SHIPMENT_BUILDER!$E$14, 0)</f>
         <v/>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$14=7, SHIPMENT_BUILDER!$E$14, 0)</f>
         <v/>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$14=8, SHIPMENT_BUILDER!$E$14, 0)</f>
         <v/>
       </c>
@@ -4784,35 +5337,35 @@
         <f>SHIPMENT_BUILDER!E15</f>
         <v/>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$15=1, SHIPMENT_BUILDER!$E$15, 0)</f>
         <v/>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$15=2, SHIPMENT_BUILDER!$E$15, 0)</f>
         <v/>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$15=3, SHIPMENT_BUILDER!$E$15, 0)</f>
         <v/>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$15=4, SHIPMENT_BUILDER!$E$15, 0)</f>
         <v/>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$15=5, SHIPMENT_BUILDER!$E$15, 0)</f>
         <v/>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$15=6, SHIPMENT_BUILDER!$E$15, 0)</f>
         <v/>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$15=7, SHIPMENT_BUILDER!$E$15, 0)</f>
         <v/>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$15=8, SHIPMENT_BUILDER!$E$15, 0)</f>
         <v/>
       </c>
@@ -4835,35 +5388,35 @@
         <f>SHIPMENT_BUILDER!E16</f>
         <v/>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$16=1, SHIPMENT_BUILDER!$E$16, 0)</f>
         <v/>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$16=2, SHIPMENT_BUILDER!$E$16, 0)</f>
         <v/>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$16=3, SHIPMENT_BUILDER!$E$16, 0)</f>
         <v/>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$16=4, SHIPMENT_BUILDER!$E$16, 0)</f>
         <v/>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$16=5, SHIPMENT_BUILDER!$E$16, 0)</f>
         <v/>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$16=6, SHIPMENT_BUILDER!$E$16, 0)</f>
         <v/>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$16=7, SHIPMENT_BUILDER!$E$16, 0)</f>
         <v/>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$16=8, SHIPMENT_BUILDER!$E$16, 0)</f>
         <v/>
       </c>
@@ -4886,35 +5439,35 @@
         <f>SHIPMENT_BUILDER!E17</f>
         <v/>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$17=1, SHIPMENT_BUILDER!$E$17, 0)</f>
         <v/>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$17=2, SHIPMENT_BUILDER!$E$17, 0)</f>
         <v/>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$17=3, SHIPMENT_BUILDER!$E$17, 0)</f>
         <v/>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$17=4, SHIPMENT_BUILDER!$E$17, 0)</f>
         <v/>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$17=5, SHIPMENT_BUILDER!$E$17, 0)</f>
         <v/>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$17=6, SHIPMENT_BUILDER!$E$17, 0)</f>
         <v/>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$17=7, SHIPMENT_BUILDER!$E$17, 0)</f>
         <v/>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$17=8, SHIPMENT_BUILDER!$E$17, 0)</f>
         <v/>
       </c>
@@ -4937,35 +5490,35 @@
         <f>SHIPMENT_BUILDER!E18</f>
         <v/>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$18=1, SHIPMENT_BUILDER!$E$18, 0)</f>
         <v/>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$18=2, SHIPMENT_BUILDER!$E$18, 0)</f>
         <v/>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$18=3, SHIPMENT_BUILDER!$E$18, 0)</f>
         <v/>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$18=4, SHIPMENT_BUILDER!$E$18, 0)</f>
         <v/>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$18=5, SHIPMENT_BUILDER!$E$18, 0)</f>
         <v/>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$18=6, SHIPMENT_BUILDER!$E$18, 0)</f>
         <v/>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$18=7, SHIPMENT_BUILDER!$E$18, 0)</f>
         <v/>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$18=8, SHIPMENT_BUILDER!$E$18, 0)</f>
         <v/>
       </c>
@@ -4988,35 +5541,35 @@
         <f>SHIPMENT_BUILDER!E19</f>
         <v/>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$19=1, SHIPMENT_BUILDER!$E$19, 0)</f>
         <v/>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$19=2, SHIPMENT_BUILDER!$E$19, 0)</f>
         <v/>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$19=3, SHIPMENT_BUILDER!$E$19, 0)</f>
         <v/>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$19=4, SHIPMENT_BUILDER!$E$19, 0)</f>
         <v/>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$19=5, SHIPMENT_BUILDER!$E$19, 0)</f>
         <v/>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$19=6, SHIPMENT_BUILDER!$E$19, 0)</f>
         <v/>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$19=7, SHIPMENT_BUILDER!$E$19, 0)</f>
         <v/>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$19=8, SHIPMENT_BUILDER!$E$19, 0)</f>
         <v/>
       </c>
@@ -5039,35 +5592,35 @@
         <f>SHIPMENT_BUILDER!E20</f>
         <v/>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$20=1, SHIPMENT_BUILDER!$E$20, 0)</f>
         <v/>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$20=2, SHIPMENT_BUILDER!$E$20, 0)</f>
         <v/>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$20=3, SHIPMENT_BUILDER!$E$20, 0)</f>
         <v/>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$20=4, SHIPMENT_BUILDER!$E$20, 0)</f>
         <v/>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$20=5, SHIPMENT_BUILDER!$E$20, 0)</f>
         <v/>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$20=6, SHIPMENT_BUILDER!$E$20, 0)</f>
         <v/>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$20=7, SHIPMENT_BUILDER!$E$20, 0)</f>
         <v/>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$20=8, SHIPMENT_BUILDER!$E$20, 0)</f>
         <v/>
       </c>
@@ -5090,35 +5643,35 @@
         <f>SHIPMENT_BUILDER!E21</f>
         <v/>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$21=1, SHIPMENT_BUILDER!$E$21, 0)</f>
         <v/>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$21=2, SHIPMENT_BUILDER!$E$21, 0)</f>
         <v/>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$21=3, SHIPMENT_BUILDER!$E$21, 0)</f>
         <v/>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$21=4, SHIPMENT_BUILDER!$E$21, 0)</f>
         <v/>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$21=5, SHIPMENT_BUILDER!$E$21, 0)</f>
         <v/>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$21=6, SHIPMENT_BUILDER!$E$21, 0)</f>
         <v/>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$21=7, SHIPMENT_BUILDER!$E$21, 0)</f>
         <v/>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$21=8, SHIPMENT_BUILDER!$E$21, 0)</f>
         <v/>
       </c>
@@ -5141,35 +5694,35 @@
         <f>SHIPMENT_BUILDER!E22</f>
         <v/>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$22=1, SHIPMENT_BUILDER!$E$22, 0)</f>
         <v/>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$22=2, SHIPMENT_BUILDER!$E$22, 0)</f>
         <v/>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$22=3, SHIPMENT_BUILDER!$E$22, 0)</f>
         <v/>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$22=4, SHIPMENT_BUILDER!$E$22, 0)</f>
         <v/>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$22=5, SHIPMENT_BUILDER!$E$22, 0)</f>
         <v/>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$22=6, SHIPMENT_BUILDER!$E$22, 0)</f>
         <v/>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$22=7, SHIPMENT_BUILDER!$E$22, 0)</f>
         <v/>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$22=8, SHIPMENT_BUILDER!$E$22, 0)</f>
         <v/>
       </c>
@@ -5192,35 +5745,35 @@
         <f>SHIPMENT_BUILDER!E23</f>
         <v/>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$23=1, SHIPMENT_BUILDER!$E$23, 0)</f>
         <v/>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$23=2, SHIPMENT_BUILDER!$E$23, 0)</f>
         <v/>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$23=3, SHIPMENT_BUILDER!$E$23, 0)</f>
         <v/>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$23=4, SHIPMENT_BUILDER!$E$23, 0)</f>
         <v/>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$23=5, SHIPMENT_BUILDER!$E$23, 0)</f>
         <v/>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$23=6, SHIPMENT_BUILDER!$E$23, 0)</f>
         <v/>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$23=7, SHIPMENT_BUILDER!$E$23, 0)</f>
         <v/>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$23=8, SHIPMENT_BUILDER!$E$23, 0)</f>
         <v/>
       </c>
@@ -5243,35 +5796,35 @@
         <f>SHIPMENT_BUILDER!E24</f>
         <v/>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$24=1, SHIPMENT_BUILDER!$E$24, 0)</f>
         <v/>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$24=2, SHIPMENT_BUILDER!$E$24, 0)</f>
         <v/>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$24=3, SHIPMENT_BUILDER!$E$24, 0)</f>
         <v/>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$24=4, SHIPMENT_BUILDER!$E$24, 0)</f>
         <v/>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$24=5, SHIPMENT_BUILDER!$E$24, 0)</f>
         <v/>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$24=6, SHIPMENT_BUILDER!$E$24, 0)</f>
         <v/>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$24=7, SHIPMENT_BUILDER!$E$24, 0)</f>
         <v/>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$24=8, SHIPMENT_BUILDER!$E$24, 0)</f>
         <v/>
       </c>
@@ -5294,35 +5847,35 @@
         <f>SHIPMENT_BUILDER!E25</f>
         <v/>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$25=1, SHIPMENT_BUILDER!$E$25, 0)</f>
         <v/>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$25=2, SHIPMENT_BUILDER!$E$25, 0)</f>
         <v/>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$25=3, SHIPMENT_BUILDER!$E$25, 0)</f>
         <v/>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$25=4, SHIPMENT_BUILDER!$E$25, 0)</f>
         <v/>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$25=5, SHIPMENT_BUILDER!$E$25, 0)</f>
         <v/>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$25=6, SHIPMENT_BUILDER!$E$25, 0)</f>
         <v/>
       </c>
-      <c r="K25" s="28">
+      <c r="K25" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$25=7, SHIPMENT_BUILDER!$E$25, 0)</f>
         <v/>
       </c>
-      <c r="L25" s="28">
+      <c r="L25" s="47">
         <f>IF(SHIPMENT_BUILDER!$H$25=8, SHIPMENT_BUILDER!$E$25, 0)</f>
         <v/>
       </c>

--- a/CLO Dashboard/Logistics_Dashboard.xlsx
+++ b/CLO Dashboard/Logistics_Dashboard.xlsx
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="B13" s="9" t="n">
-        <v>3526</v>
+        <v>4800</v>
       </c>
       <c r="C13" s="7" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>2643</v>
+        <v>2500</v>
       </c>
       <c r="C14" s="7" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>4329</v>
+        <v>2000</v>
       </c>
       <c r="C15" s="7" t="n">
         <v>0</v>
@@ -2035,12 +2035,12 @@
     <row r="4">
       <c r="A4" s="30" t="inlineStr">
         <is>
-          <t>═══ CENTER ZONE (Capacity: 3,526) ═══</t>
+          <t>═══ CENTER ZONE (Capacity: 4,800) ═══</t>
         </is>
       </c>
       <c r="I4" s="31" t="inlineStr">
         <is>
-          <t>Last Period Rent: $41,423</t>
+          <t>Last Period Rent: $38,400</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>1938</v>
+        <v>3410</v>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         </is>
       </c>
       <c r="E5" s="9" t="n">
-        <v>3526</v>
+        <v>4800</v>
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
@@ -2363,12 +2363,12 @@
     <row r="18">
       <c r="A18" s="33" t="inlineStr">
         <is>
-          <t>═══ WEST ZONE (Capacity: 2,643) ═══</t>
+          <t>═══ WEST ZONE (Capacity: 2,500) ═══</t>
         </is>
       </c>
       <c r="I18" s="31" t="inlineStr">
         <is>
-          <t>Last Period Rent: $26,031</t>
+          <t>Last Period Rent: $20,000</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="B19" s="9" t="n">
-        <v>1080</v>
+        <v>1886</v>
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         </is>
       </c>
       <c r="E19" s="9" t="n">
-        <v>2643</v>
+        <v>2500</v>
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
@@ -2765,12 +2765,12 @@
     <row r="32">
       <c r="A32" s="35" t="inlineStr">
         <is>
-          <t>═══ NORTH ZONE (Capacity: 4,329) ═══</t>
+          <t>═══ NORTH ZONE (Capacity: 2,000) ═══</t>
         </is>
       </c>
       <c r="I32" s="31" t="inlineStr">
         <is>
-          <t>Last Period Rent: $48,858</t>
+          <t>Last Period Rent: $16,000</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="B33" s="9" t="n">
-        <v>1569</v>
+        <v>1720</v>
       </c>
       <c r="D33" s="5" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="E33" s="9" t="n">
-        <v>4329</v>
+        <v>2000</v>
       </c>
       <c r="G33" s="5" t="inlineStr">
         <is>
@@ -3170,11 +3170,6 @@
           <t>═══ EAST ZONE (Capacity: 0) ═══</t>
         </is>
       </c>
-      <c r="I46" s="31" t="inlineStr">
-        <is>
-          <t>Last Period Rent: $16,137</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="inlineStr">
@@ -3570,11 +3565,6 @@
       <c r="A60" s="39" t="inlineStr">
         <is>
           <t>═══ SOUTH ZONE (Capacity: 0) ═══</t>
-        </is>
-      </c>
-      <c r="I60" s="31" t="inlineStr">
-        <is>
-          <t>Last Period Rent: $43,604</t>
         </is>
       </c>
     </row>
@@ -4200,7 +4190,7 @@
         </is>
       </c>
       <c r="N6" s="45" t="n">
-        <v>11.19</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="7">
@@ -4236,7 +4226,7 @@
         </is>
       </c>
       <c r="N7" s="45" t="n">
-        <v>13.08894736842105</v>
+        <v>16.31992540096979</v>
       </c>
     </row>
     <row r="8">
@@ -4746,7 +4736,7 @@
     <row r="27">
       <c r="A27" s="46" t="inlineStr">
         <is>
-          <t>⚠️ Red cells = Cost &gt;20% above avg benchmark ($12.14 avg)</t>
+          <t>⚠️ Red cells = Cost &gt;20% above avg benchmark ($14.76 avg)</t>
         </is>
       </c>
     </row>
@@ -4756,7 +4746,7 @@
   </mergeCells>
   <conditionalFormatting sqref="F6:F25">
     <cfRule type="expression" priority="1" dxfId="4">
-      <formula>F6&gt;14.56736842105263</formula>
+      <formula>F6&gt;17.711955240581872</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
